--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="637">
   <si>
     <t>Student ID</t>
   </si>
@@ -1918,6 +1918,18 @@
   </si>
   <si>
     <t>B2F</t>
+  </si>
+  <si>
+    <t>تسنيم محمد انور</t>
+  </si>
+  <si>
+    <t>هاجر عماد حسين حسين</t>
+  </si>
+  <si>
+    <t>عمر محمد احمد على محمد حفناوى</t>
+  </si>
+  <si>
+    <t>محمد فتحى احمد الحسينى</t>
   </si>
 </sst>
 </file>
@@ -2303,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E311"/>
+  <dimension ref="A1:E315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261:D311"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C316" sqref="C316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7605,6 +7617,74 @@
         <v>8</v>
       </c>
     </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="3">
+        <v>223003</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="3">
+        <v>223004</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="3">
+        <v>223005</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="3">
+        <v>223006</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\reference_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1A38A-D5B4-4B25-A1E8-8F374EA4D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1902,41 +1903,41 @@
     <t>ليان ياسر عطايا</t>
   </si>
   <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>B2D</t>
+  </si>
+  <si>
+    <t>B2E</t>
+  </si>
+  <si>
+    <t>B2F</t>
+  </si>
+  <si>
+    <t>تسنيم محمد انور</t>
+  </si>
+  <si>
+    <t>هاجر عماد حسين حسين</t>
+  </si>
+  <si>
+    <t>عمر محمد احمد على محمد حفناوى</t>
+  </si>
+  <si>
+    <t>محمد فتحى احمد الحسينى</t>
+  </si>
+  <si>
     <t>B2A</t>
-  </si>
-  <si>
-    <t>B2B</t>
-  </si>
-  <si>
-    <t>B2C</t>
-  </si>
-  <si>
-    <t>B2D</t>
-  </si>
-  <si>
-    <t>B2E</t>
-  </si>
-  <si>
-    <t>B2F</t>
-  </si>
-  <si>
-    <t>تسنيم محمد انور</t>
-  </si>
-  <si>
-    <t>هاجر عماد حسين حسين</t>
-  </si>
-  <si>
-    <t>عمر محمد احمد على محمد حفناوى</t>
-  </si>
-  <si>
-    <t>محمد فتحى احمد الحسينى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2314,14 +2315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2330,7 +2331,7 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2358,13 +2359,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2375,13 +2376,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2392,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -2409,13 +2410,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2426,13 +2427,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -2443,13 +2444,13 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -2460,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2477,13 +2478,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -2494,13 +2495,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -2511,13 +2512,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -2528,13 +2529,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2545,13 +2546,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2562,13 +2563,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2579,13 +2580,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -2596,13 +2597,13 @@
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -2613,13 +2614,13 @@
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -2630,13 +2631,13 @@
         <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -2647,13 +2648,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -2664,13 +2665,13 @@
         <v>7</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>45</v>
       </c>
@@ -2681,13 +2682,13 @@
         <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>47</v>
       </c>
@@ -2698,13 +2699,13 @@
         <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -2715,13 +2716,13 @@
         <v>7</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -2732,13 +2733,13 @@
         <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
@@ -2749,13 +2750,13 @@
         <v>7</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
@@ -2766,13 +2767,13 @@
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -2783,13 +2784,13 @@
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -2800,13 +2801,13 @@
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
@@ -2817,13 +2818,13 @@
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
@@ -2834,13 +2835,13 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>65</v>
       </c>
@@ -2851,13 +2852,13 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -2868,13 +2869,13 @@
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -2885,13 +2886,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2902,13 +2903,13 @@
         <v>7</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -2919,13 +2920,13 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2936,13 +2937,13 @@
         <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>77</v>
       </c>
@@ -2953,13 +2954,13 @@
         <v>7</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -2970,13 +2971,13 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -2987,13 +2988,13 @@
         <v>7</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3004,13 +3005,13 @@
         <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>85</v>
       </c>
@@ -3021,13 +3022,13 @@
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
@@ -3038,13 +3039,13 @@
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>89</v>
       </c>
@@ -3055,13 +3056,13 @@
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>91</v>
       </c>
@@ -3072,13 +3073,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
@@ -3089,13 +3090,13 @@
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -3106,13 +3107,13 @@
         <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>97</v>
       </c>
@@ -3123,13 +3124,13 @@
         <v>7</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>99</v>
       </c>
@@ -3140,13 +3141,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>101</v>
       </c>
@@ -3157,13 +3158,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>103</v>
       </c>
@@ -3174,13 +3175,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
@@ -3191,13 +3192,13 @@
         <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>107</v>
       </c>
@@ -3208,13 +3209,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>109</v>
       </c>
@@ -3225,13 +3226,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>111</v>
       </c>
@@ -3242,13 +3243,13 @@
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>113</v>
       </c>
@@ -3259,13 +3260,13 @@
         <v>7</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>115</v>
       </c>
@@ -3276,13 +3277,13 @@
         <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>117</v>
       </c>
@@ -3293,13 +3294,13 @@
         <v>7</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>119</v>
       </c>
@@ -3310,13 +3311,13 @@
         <v>7</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>121</v>
       </c>
@@ -3327,13 +3328,13 @@
         <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>123</v>
       </c>
@@ -3344,13 +3345,13 @@
         <v>7</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>125</v>
       </c>
@@ -3361,13 +3362,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>127</v>
       </c>
@@ -3378,13 +3379,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>129</v>
       </c>
@@ -3395,13 +3396,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>131</v>
       </c>
@@ -3412,13 +3413,13 @@
         <v>7</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>133</v>
       </c>
@@ -3429,13 +3430,13 @@
         <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>135</v>
       </c>
@@ -3446,13 +3447,13 @@
         <v>7</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>137</v>
       </c>
@@ -3463,13 +3464,13 @@
         <v>7</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
@@ -3480,13 +3481,13 @@
         <v>7</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>141</v>
       </c>
@@ -3497,13 +3498,13 @@
         <v>7</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>143</v>
       </c>
@@ -3514,13 +3515,13 @@
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>145</v>
       </c>
@@ -3531,13 +3532,13 @@
         <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>147</v>
       </c>
@@ -3548,13 +3549,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>149</v>
       </c>
@@ -3565,13 +3566,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>151</v>
       </c>
@@ -3582,13 +3583,13 @@
         <v>7</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>153</v>
       </c>
@@ -3599,13 +3600,13 @@
         <v>7</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>155</v>
       </c>
@@ -3616,13 +3617,13 @@
         <v>7</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>157</v>
       </c>
@@ -3633,13 +3634,13 @@
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>159</v>
       </c>
@@ -3650,13 +3651,13 @@
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>161</v>
       </c>
@@ -3667,13 +3668,13 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>163</v>
       </c>
@@ -3684,13 +3685,13 @@
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>165</v>
       </c>
@@ -3701,13 +3702,13 @@
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>167</v>
       </c>
@@ -3718,13 +3719,13 @@
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>169</v>
       </c>
@@ -3735,13 +3736,13 @@
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>171</v>
       </c>
@@ -3752,13 +3753,13 @@
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>173</v>
       </c>
@@ -3769,13 +3770,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>175</v>
       </c>
@@ -3786,13 +3787,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>177</v>
       </c>
@@ -3803,13 +3804,13 @@
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>179</v>
       </c>
@@ -3820,13 +3821,13 @@
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>181</v>
       </c>
@@ -3837,13 +3838,13 @@
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>183</v>
       </c>
@@ -3854,13 +3855,13 @@
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
@@ -3871,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>187</v>
       </c>
@@ -3888,13 +3889,13 @@
         <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>189</v>
       </c>
@@ -3905,13 +3906,13 @@
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>191</v>
       </c>
@@ -3922,13 +3923,13 @@
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>193</v>
       </c>
@@ -3939,13 +3940,13 @@
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>195</v>
       </c>
@@ -3956,13 +3957,13 @@
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>197</v>
       </c>
@@ -3973,13 +3974,13 @@
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>199</v>
       </c>
@@ -3990,13 +3991,13 @@
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>201</v>
       </c>
@@ -4007,13 +4008,13 @@
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>203</v>
       </c>
@@ -4024,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>205</v>
       </c>
@@ -4041,13 +4042,13 @@
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>207</v>
       </c>
@@ -4058,13 +4059,13 @@
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>209</v>
       </c>
@@ -4075,13 +4076,13 @@
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>211</v>
       </c>
@@ -4092,13 +4093,13 @@
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>213</v>
       </c>
@@ -4109,13 +4110,13 @@
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>215</v>
       </c>
@@ -4126,13 +4127,13 @@
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>217</v>
       </c>
@@ -4143,13 +4144,13 @@
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>219</v>
       </c>
@@ -4160,13 +4161,13 @@
         <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>221</v>
       </c>
@@ -4177,13 +4178,13 @@
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>223</v>
       </c>
@@ -4194,13 +4195,13 @@
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>225</v>
       </c>
@@ -4211,13 +4212,13 @@
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
@@ -4228,13 +4229,13 @@
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>229</v>
       </c>
@@ -4245,13 +4246,13 @@
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>231</v>
       </c>
@@ -4262,13 +4263,13 @@
         <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>233</v>
       </c>
@@ -4279,13 +4280,13 @@
         <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>235</v>
       </c>
@@ -4296,13 +4297,13 @@
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>237</v>
       </c>
@@ -4313,13 +4314,13 @@
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>239</v>
       </c>
@@ -4330,13 +4331,13 @@
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>241</v>
       </c>
@@ -4347,13 +4348,13 @@
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>243</v>
       </c>
@@ -4364,13 +4365,13 @@
         <v>7</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>245</v>
       </c>
@@ -4381,13 +4382,13 @@
         <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>247</v>
       </c>
@@ -4398,13 +4399,13 @@
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>249</v>
       </c>
@@ -4415,13 +4416,13 @@
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>251</v>
       </c>
@@ -4432,13 +4433,13 @@
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>253</v>
       </c>
@@ -4449,13 +4450,13 @@
         <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>255</v>
       </c>
@@ -4466,13 +4467,13 @@
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>257</v>
       </c>
@@ -4483,13 +4484,13 @@
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>259</v>
       </c>
@@ -4500,13 +4501,13 @@
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>261</v>
       </c>
@@ -4517,13 +4518,13 @@
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>263</v>
       </c>
@@ -4534,13 +4535,13 @@
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>265</v>
       </c>
@@ -4551,13 +4552,13 @@
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>267</v>
       </c>
@@ -4568,13 +4569,13 @@
         <v>7</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>269</v>
       </c>
@@ -4585,13 +4586,13 @@
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>271</v>
       </c>
@@ -4602,13 +4603,13 @@
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>273</v>
       </c>
@@ -4619,13 +4620,13 @@
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>275</v>
       </c>
@@ -4636,13 +4637,13 @@
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>277</v>
       </c>
@@ -4653,13 +4654,13 @@
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>279</v>
       </c>
@@ -4670,13 +4671,13 @@
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>281</v>
       </c>
@@ -4687,13 +4688,13 @@
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>283</v>
       </c>
@@ -4704,13 +4705,13 @@
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>285</v>
       </c>
@@ -4721,13 +4722,13 @@
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>287</v>
       </c>
@@ -4738,13 +4739,13 @@
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>289</v>
       </c>
@@ -4755,13 +4756,13 @@
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>291</v>
       </c>
@@ -4772,13 +4773,13 @@
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>293</v>
       </c>
@@ -4789,13 +4790,13 @@
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>295</v>
       </c>
@@ -4806,13 +4807,13 @@
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>297</v>
       </c>
@@ -4823,13 +4824,13 @@
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>299</v>
       </c>
@@ -4840,13 +4841,13 @@
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>301</v>
       </c>
@@ -4857,13 +4858,13 @@
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>303</v>
       </c>
@@ -4874,13 +4875,13 @@
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>305</v>
       </c>
@@ -4891,13 +4892,13 @@
         <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>307</v>
       </c>
@@ -4908,13 +4909,13 @@
         <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>309</v>
       </c>
@@ -4925,13 +4926,13 @@
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>311</v>
       </c>
@@ -4942,13 +4943,13 @@
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>313</v>
       </c>
@@ -4959,13 +4960,13 @@
         <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>315</v>
       </c>
@@ -4976,13 +4977,13 @@
         <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>317</v>
       </c>
@@ -4993,13 +4994,13 @@
         <v>7</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>319</v>
       </c>
@@ -5010,13 +5011,13 @@
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>321</v>
       </c>
@@ -5027,13 +5028,13 @@
         <v>7</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>323</v>
       </c>
@@ -5044,13 +5045,13 @@
         <v>7</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>325</v>
       </c>
@@ -5061,13 +5062,13 @@
         <v>7</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>327</v>
       </c>
@@ -5078,13 +5079,13 @@
         <v>7</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
@@ -5095,13 +5096,13 @@
         <v>7</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>331</v>
       </c>
@@ -5112,13 +5113,13 @@
         <v>7</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>333</v>
       </c>
@@ -5129,13 +5130,13 @@
         <v>7</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>335</v>
       </c>
@@ -5146,13 +5147,13 @@
         <v>7</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>337</v>
       </c>
@@ -5163,13 +5164,13 @@
         <v>7</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>339</v>
       </c>
@@ -5180,13 +5181,13 @@
         <v>7</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>341</v>
       </c>
@@ -5197,13 +5198,13 @@
         <v>7</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>343</v>
       </c>
@@ -5214,13 +5215,13 @@
         <v>7</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>345</v>
       </c>
@@ -5231,13 +5232,13 @@
         <v>7</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>347</v>
       </c>
@@ -5248,13 +5249,13 @@
         <v>7</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>349</v>
       </c>
@@ -5265,13 +5266,13 @@
         <v>7</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>351</v>
       </c>
@@ -5282,13 +5283,13 @@
         <v>7</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>353</v>
       </c>
@@ -5299,13 +5300,13 @@
         <v>7</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>355</v>
       </c>
@@ -5316,13 +5317,13 @@
         <v>7</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>357</v>
       </c>
@@ -5333,13 +5334,13 @@
         <v>7</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>359</v>
       </c>
@@ -5350,13 +5351,13 @@
         <v>7</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>361</v>
       </c>
@@ -5367,13 +5368,13 @@
         <v>7</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>363</v>
       </c>
@@ -5384,13 +5385,13 @@
         <v>7</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>365</v>
       </c>
@@ -5401,13 +5402,13 @@
         <v>7</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>367</v>
       </c>
@@ -5418,13 +5419,13 @@
         <v>7</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>369</v>
       </c>
@@ -5435,13 +5436,13 @@
         <v>7</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>371</v>
       </c>
@@ -5452,13 +5453,13 @@
         <v>7</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>373</v>
       </c>
@@ -5469,13 +5470,13 @@
         <v>7</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>375</v>
       </c>
@@ -5486,13 +5487,13 @@
         <v>7</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>377</v>
       </c>
@@ -5503,13 +5504,13 @@
         <v>7</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>379</v>
       </c>
@@ -5520,13 +5521,13 @@
         <v>7</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>381</v>
       </c>
@@ -5537,13 +5538,13 @@
         <v>7</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>383</v>
       </c>
@@ -5554,13 +5555,13 @@
         <v>7</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>385</v>
       </c>
@@ -5571,13 +5572,13 @@
         <v>7</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>387</v>
       </c>
@@ -5588,13 +5589,13 @@
         <v>7</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>389</v>
       </c>
@@ -5605,13 +5606,13 @@
         <v>7</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>391</v>
       </c>
@@ -5622,13 +5623,13 @@
         <v>7</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>393</v>
       </c>
@@ -5639,13 +5640,13 @@
         <v>7</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>395</v>
       </c>
@@ -5656,13 +5657,13 @@
         <v>7</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>397</v>
       </c>
@@ -5673,13 +5674,13 @@
         <v>7</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E197" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>399</v>
       </c>
@@ -5690,13 +5691,13 @@
         <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>401</v>
       </c>
@@ -5707,13 +5708,13 @@
         <v>7</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>403</v>
       </c>
@@ -5724,13 +5725,13 @@
         <v>7</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>405</v>
       </c>
@@ -5741,13 +5742,13 @@
         <v>7</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E201" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>407</v>
       </c>
@@ -5758,13 +5759,13 @@
         <v>7</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>409</v>
       </c>
@@ -5775,13 +5776,13 @@
         <v>7</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>411</v>
       </c>
@@ -5792,13 +5793,13 @@
         <v>7</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>413</v>
       </c>
@@ -5809,13 +5810,13 @@
         <v>7</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E205" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>415</v>
       </c>
@@ -5826,13 +5827,13 @@
         <v>7</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>417</v>
       </c>
@@ -5843,13 +5844,13 @@
         <v>7</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>419</v>
       </c>
@@ -5860,13 +5861,13 @@
         <v>7</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>421</v>
       </c>
@@ -5877,13 +5878,13 @@
         <v>7</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>423</v>
       </c>
@@ -5894,13 +5895,13 @@
         <v>7</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>425</v>
       </c>
@@ -5911,13 +5912,13 @@
         <v>7</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E211" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>427</v>
       </c>
@@ -5928,13 +5929,13 @@
         <v>7</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>429</v>
       </c>
@@ -5945,13 +5946,13 @@
         <v>7</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>431</v>
       </c>
@@ -5962,13 +5963,13 @@
         <v>7</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>433</v>
       </c>
@@ -5979,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>435</v>
       </c>
@@ -5996,13 +5997,13 @@
         <v>7</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>437</v>
       </c>
@@ -6013,13 +6014,13 @@
         <v>7</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>439</v>
       </c>
@@ -6030,13 +6031,13 @@
         <v>7</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>441</v>
       </c>
@@ -6047,13 +6048,13 @@
         <v>7</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>443</v>
       </c>
@@ -6064,13 +6065,13 @@
         <v>7</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>445</v>
       </c>
@@ -6081,13 +6082,13 @@
         <v>7</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E221" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>447</v>
       </c>
@@ -6098,13 +6099,13 @@
         <v>7</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>449</v>
       </c>
@@ -6115,13 +6116,13 @@
         <v>7</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E223" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>451</v>
       </c>
@@ -6132,13 +6133,13 @@
         <v>7</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>453</v>
       </c>
@@ -6149,13 +6150,13 @@
         <v>7</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>455</v>
       </c>
@@ -6166,13 +6167,13 @@
         <v>7</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>457</v>
       </c>
@@ -6183,13 +6184,13 @@
         <v>7</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>459</v>
       </c>
@@ -6200,13 +6201,13 @@
         <v>7</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>461</v>
       </c>
@@ -6217,13 +6218,13 @@
         <v>7</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>463</v>
       </c>
@@ -6234,13 +6235,13 @@
         <v>7</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>465</v>
       </c>
@@ -6251,13 +6252,13 @@
         <v>7</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E231" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>467</v>
       </c>
@@ -6268,13 +6269,13 @@
         <v>7</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>469</v>
       </c>
@@ -6285,13 +6286,13 @@
         <v>7</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E233" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>471</v>
       </c>
@@ -6302,13 +6303,13 @@
         <v>7</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>473</v>
       </c>
@@ -6319,13 +6320,13 @@
         <v>7</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>475</v>
       </c>
@@ -6336,13 +6337,13 @@
         <v>7</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>477</v>
       </c>
@@ -6353,13 +6354,13 @@
         <v>7</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E237" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>479</v>
       </c>
@@ -6370,13 +6371,13 @@
         <v>7</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>481</v>
       </c>
@@ -6387,13 +6388,13 @@
         <v>7</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E239" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>483</v>
       </c>
@@ -6404,13 +6405,13 @@
         <v>7</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>485</v>
       </c>
@@ -6421,13 +6422,13 @@
         <v>7</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E241" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>487</v>
       </c>
@@ -6438,13 +6439,13 @@
         <v>7</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>489</v>
       </c>
@@ -6455,13 +6456,13 @@
         <v>7</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E243" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>491</v>
       </c>
@@ -6472,13 +6473,13 @@
         <v>7</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>493</v>
       </c>
@@ -6489,13 +6490,13 @@
         <v>7</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>495</v>
       </c>
@@ -6506,13 +6507,13 @@
         <v>7</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>497</v>
       </c>
@@ -6523,13 +6524,13 @@
         <v>7</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>499</v>
       </c>
@@ -6540,13 +6541,13 @@
         <v>7</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>501</v>
       </c>
@@ -6557,13 +6558,13 @@
         <v>7</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E249" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>503</v>
       </c>
@@ -6574,13 +6575,13 @@
         <v>7</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>505</v>
       </c>
@@ -6591,13 +6592,13 @@
         <v>7</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E251" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>507</v>
       </c>
@@ -6608,13 +6609,13 @@
         <v>7</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>509</v>
       </c>
@@ -6625,13 +6626,13 @@
         <v>7</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>511</v>
       </c>
@@ -6642,13 +6643,13 @@
         <v>7</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>513</v>
       </c>
@@ -6659,13 +6660,13 @@
         <v>7</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>515</v>
       </c>
@@ -6676,13 +6677,13 @@
         <v>7</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>517</v>
       </c>
@@ -6693,13 +6694,13 @@
         <v>7</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>519</v>
       </c>
@@ -6710,13 +6711,13 @@
         <v>7</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>521</v>
       </c>
@@ -6727,13 +6728,13 @@
         <v>7</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>523</v>
       </c>
@@ -6744,13 +6745,13 @@
         <v>7</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>525</v>
       </c>
@@ -6761,13 +6762,13 @@
         <v>7</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>527</v>
       </c>
@@ -6778,13 +6779,13 @@
         <v>7</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>529</v>
       </c>
@@ -6795,13 +6796,13 @@
         <v>7</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>531</v>
       </c>
@@ -6812,13 +6813,13 @@
         <v>7</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>533</v>
       </c>
@@ -6829,13 +6830,13 @@
         <v>7</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E265" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>535</v>
       </c>
@@ -6846,13 +6847,13 @@
         <v>7</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>537</v>
       </c>
@@ -6863,13 +6864,13 @@
         <v>7</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E267" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>539</v>
       </c>
@@ -6880,13 +6881,13 @@
         <v>7</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>541</v>
       </c>
@@ -6897,13 +6898,13 @@
         <v>7</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>543</v>
       </c>
@@ -6914,13 +6915,13 @@
         <v>7</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>545</v>
       </c>
@@ -6931,13 +6932,13 @@
         <v>7</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>547</v>
       </c>
@@ -6948,13 +6949,13 @@
         <v>7</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>549</v>
       </c>
@@ -6965,13 +6966,13 @@
         <v>7</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>551</v>
       </c>
@@ -6982,13 +6983,13 @@
         <v>7</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>553</v>
       </c>
@@ -6999,13 +7000,13 @@
         <v>7</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>555</v>
       </c>
@@ -7016,13 +7017,13 @@
         <v>7</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>557</v>
       </c>
@@ -7033,13 +7034,13 @@
         <v>7</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>559</v>
       </c>
@@ -7050,13 +7051,13 @@
         <v>7</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>561</v>
       </c>
@@ -7067,13 +7068,13 @@
         <v>7</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E279" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>563</v>
       </c>
@@ -7084,13 +7085,13 @@
         <v>7</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>565</v>
       </c>
@@ -7101,13 +7102,13 @@
         <v>7</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>567</v>
       </c>
@@ -7118,13 +7119,13 @@
         <v>7</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>569</v>
       </c>
@@ -7135,13 +7136,13 @@
         <v>7</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E283" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>571</v>
       </c>
@@ -7152,13 +7153,13 @@
         <v>7</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>573</v>
       </c>
@@ -7169,13 +7170,13 @@
         <v>7</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>575</v>
       </c>
@@ -7186,13 +7187,13 @@
         <v>7</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>577</v>
       </c>
@@ -7203,13 +7204,13 @@
         <v>7</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>579</v>
       </c>
@@ -7220,13 +7221,13 @@
         <v>7</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>581</v>
       </c>
@@ -7237,13 +7238,13 @@
         <v>7</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E289" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>583</v>
       </c>
@@ -7254,13 +7255,13 @@
         <v>7</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>585</v>
       </c>
@@ -7271,13 +7272,13 @@
         <v>7</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>587</v>
       </c>
@@ -7288,13 +7289,13 @@
         <v>7</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>589</v>
       </c>
@@ -7305,13 +7306,13 @@
         <v>7</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>591</v>
       </c>
@@ -7322,13 +7323,13 @@
         <v>7</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>593</v>
       </c>
@@ -7339,13 +7340,13 @@
         <v>7</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>595</v>
       </c>
@@ -7356,13 +7357,13 @@
         <v>7</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>597</v>
       </c>
@@ -7373,13 +7374,13 @@
         <v>7</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E297" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>599</v>
       </c>
@@ -7390,13 +7391,13 @@
         <v>7</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>601</v>
       </c>
@@ -7407,13 +7408,13 @@
         <v>7</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>603</v>
       </c>
@@ -7424,13 +7425,13 @@
         <v>7</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>605</v>
       </c>
@@ -7441,13 +7442,13 @@
         <v>7</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E301" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>607</v>
       </c>
@@ -7458,13 +7459,13 @@
         <v>7</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>609</v>
       </c>
@@ -7475,13 +7476,13 @@
         <v>7</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>611</v>
       </c>
@@ -7492,13 +7493,13 @@
         <v>7</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>613</v>
       </c>
@@ -7509,13 +7510,13 @@
         <v>7</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E305" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>615</v>
       </c>
@@ -7526,13 +7527,13 @@
         <v>7</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>617</v>
       </c>
@@ -7543,13 +7544,13 @@
         <v>7</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>619</v>
       </c>
@@ -7560,13 +7561,13 @@
         <v>7</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>621</v>
       </c>
@@ -7577,13 +7578,13 @@
         <v>7</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>623</v>
       </c>
@@ -7594,13 +7595,13 @@
         <v>7</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>625</v>
       </c>
@@ -7611,75 +7612,75 @@
         <v>7</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>223003</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>223004</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E313" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>223005</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E314" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>223006</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E315" s="3" t="s">
         <v>8</v>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -3975,7 +3975,7 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4542,7 +4542,7 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4650,7 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5514,7 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6054,7 +6054,7 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6675,7 +6675,7 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6918,7 +6918,7 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -6999,7 +6999,7 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7674,7 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8214,7 +8214,7 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8970,7 +8970,7 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9051,7 +9051,7 @@
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="E333" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D16092025T112941.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D21092025T123610.xlsx</t>
         </is>
       </c>
     </row>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\reference_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\reference_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CD03AD-DEF7-473A-813A-A24D0825CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="1520" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2055,8 +2056,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2434,14 +2435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="D328" sqref="D328"/>
+      <selection activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
@@ -2450,7 +2451,7 @@
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>32</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
@@ -2773,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>58</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>62</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -2977,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>70</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>74</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>78</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>80</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>86</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>88</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>90</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>92</v>
       </c>
@@ -3198,7 +3199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>94</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>98</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>100</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>102</v>
       </c>
@@ -3283,7 +3284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>106</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>110</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>112</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>117</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>121</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>123</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>125</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>127</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>129</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>131</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>135</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>139</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>141</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>143</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>145</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>147</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>149</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>151</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>155</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>157</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>159</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>161</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>163</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>165</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>167</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>169</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>173</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>175</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>177</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>179</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>181</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>183</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>185</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>187</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>189</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>191</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>193</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>195</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>197</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>199</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>203</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>205</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>207</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>209</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>211</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>213</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>215</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>217</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>219</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>221</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>223</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>225</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>227</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>229</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>232</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>234</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>236</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>238</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>240</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>242</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>246</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>248</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>250</v>
       </c>
@@ -4524,7 +4525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>252</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>254</v>
       </c>
@@ -4558,7 +4559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>256</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>258</v>
       </c>
@@ -4592,7 +4593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>260</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>262</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>264</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>266</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>268</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>270</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>272</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>274</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>276</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>278</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>280</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>284</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>286</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>288</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>290</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>292</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>294</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>296</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>298</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>300</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>302</v>
       </c>
@@ -4966,7 +4967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>304</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>306</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>308</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>310</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>312</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>314</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>316</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>318</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>320</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>322</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>324</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>326</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>328</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>330</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>332</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>334</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>336</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>338</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>340</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>342</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>345</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>347</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>349</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>351</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>353</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>355</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>357</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>359</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>361</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>363</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>365</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>367</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>369</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>371</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>373</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>375</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>377</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>379</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>381</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>383</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>385</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>387</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>389</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>391</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>393</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>395</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>397</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>399</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>401</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>403</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>405</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>407</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>409</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>411</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>413</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>415</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>417</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>419</v>
       </c>
@@ -5952,7 +5953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>421</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>423</v>
       </c>
@@ -5986,7 +5987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>425</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>427</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>429</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>431</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>433</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>435</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>437</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>439</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>441</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>443</v>
       </c>
@@ -6156,7 +6157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>445</v>
       </c>
@@ -6173,7 +6174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>447</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>449</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>451</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>454</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>456</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>458</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>460</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>462</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>464</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>466</v>
       </c>
@@ -6343,7 +6344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>468</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>470</v>
       </c>
@@ -6377,7 +6378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>472</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>474</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>476</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>478</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>480</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>482</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>484</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>486</v>
       </c>
@@ -6513,7 +6514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>488</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>490</v>
       </c>
@@ -6547,7 +6548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>492</v>
       </c>
@@ -6564,7 +6565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>494</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>496</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>498</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>500</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>502</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>504</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>506</v>
       </c>
@@ -6683,7 +6684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>508</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>510</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>512</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>514</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>516</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>518</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>520</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>522</v>
       </c>
@@ -6819,7 +6820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>524</v>
       </c>
@@ -6836,7 +6837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>526</v>
       </c>
@@ -6853,7 +6854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>528</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>530</v>
       </c>
@@ -6887,7 +6888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>532</v>
       </c>
@@ -6904,7 +6905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>534</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>536</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>538</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>540</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>542</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>544</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>546</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>548</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>550</v>
       </c>
@@ -7057,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>552</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>554</v>
       </c>
@@ -7091,7 +7092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>556</v>
       </c>
@@ -7108,7 +7109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>558</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>560</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>562</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>565</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>567</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>569</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>571</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>573</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>575</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>577</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>579</v>
       </c>
@@ -7295,7 +7296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>581</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>583</v>
       </c>
@@ -7329,7 +7330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>585</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>587</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>589</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>591</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>593</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>595</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>597</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>599</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>601</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>603</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>605</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>607</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>609</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>611</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>613</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>615</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>617</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>619</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>621</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>623</v>
       </c>
@@ -7669,7 +7670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>625</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>627</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>629</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>631</v>
       </c>
@@ -7737,7 +7738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>633</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>635</v>
       </c>
@@ -7771,7 +7772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>637</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>639</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>641</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>643</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>645</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>647</v>
       </c>
@@ -7873,7 +7874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>649</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>651</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>653</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>655</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>657</v>
       </c>
@@ -7958,7 +7959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>659</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>661</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>663</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>665</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>667</v>
       </c>
@@ -8043,7 +8044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>669</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>671</v>
       </c>
@@ -8077,7 +8078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>673</v>
       </c>
@@ -8094,7 +8095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>675</v>
       </c>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -978,7 +978,7 @@
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
@@ -2976,19 +2976,19 @@
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>201397</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
+          <t>ربى ابراهيم محمد العمرو</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3003,19 +3003,19 @@
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>201398</t>
+          <t>201397</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
+          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3030,19 +3030,19 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>201438</t>
+          <t>201398</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>غيث معاذ محمد على</t>
+          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3057,19 +3057,19 @@
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>201465</t>
+          <t>201438</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>علياء محمد بكر الكفراوى</t>
+          <t>غيث معاذ محمد على</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3084,19 +3084,19 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>201495</t>
+          <t>201465</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبدالله خالد عبدالله عثمان  </t>
+          <t>علياء محمد بكر الكفراوى</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3111,19 +3111,19 @@
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>201501</t>
+          <t>201495</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t>احمد حسين محمد</t>
+          <t xml:space="preserve">عبدالله خالد عبدالله عثمان  </t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Abdulhakim Saleh Mohamed Taha</t>
+          <t>احمد حسين محمد</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3165,19 +3165,19 @@
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>201529</t>
+          <t>201513</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>تذكار سليمان عيسى احمد دينار</t>
+          <t>Abdulhakim Saleh Mohamed Taha</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3192,19 +3192,19 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>201560</t>
+          <t>201529</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>صهيب محمد عبد الخالق طه</t>
+          <t>تذكار سليمان عيسى احمد دينار</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3219,19 +3219,19 @@
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>201563</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>اسماء محمد ابراهيم</t>
+          <t>صهيب محمد عبد الخالق طه</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3246,19 +3246,19 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>201564</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>فاطمه محمود محمد محمود</t>
+          <t>اسماء محمد ابراهيم</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3273,19 +3273,19 @@
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>201572</t>
+          <t>201564</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>رهف عبد الرحمن سرور</t>
+          <t>فاطمه محمود محمد محمود</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3300,19 +3300,19 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>201574</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مؤمل نضال عبد جون  </t>
+          <t>رهف عبد الرحمن سرور</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3327,19 +3327,19 @@
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>201632</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>احمد محمد مصطفى على دنيال</t>
+          <t xml:space="preserve">مؤمل نضال عبد جون  </t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3354,19 +3354,19 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>201638</t>
+          <t>201632</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>زياد محمود السيد</t>
+          <t>احمد محمد مصطفى على دنيال</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3381,19 +3381,19 @@
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>201669</t>
+          <t>201638</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>نورهان السيد حسن محمد القزاز</t>
+          <t>زياد محمود السيد</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3408,19 +3408,19 @@
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>201670</t>
+          <t>201669</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>روان شعبان على محمد ابو هيبه</t>
+          <t>نورهان السيد حسن محمد القزاز</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3435,19 +3435,19 @@
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>201682</t>
+          <t>201670</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>خلود خالد اسماعيل عثمان صالح</t>
+          <t>روان شعبان على محمد ابو هيبه</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3457,24 +3457,24 @@
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>201795</t>
+          <t>201682</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عائد احمد خليل </t>
+          <t>خلود خالد اسماعيل عثمان صالح</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3489,19 +3489,19 @@
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>201819</t>
+          <t>201795</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">باقر على خليفة </t>
+          <t xml:space="preserve">عائد احمد خليل </t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3516,19 +3516,19 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>201823</t>
+          <t>201819</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
+          <t xml:space="preserve">باقر على خليفة </t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3543,19 +3543,19 @@
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>201825</t>
+          <t>201823</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t>الحمزه عماد محمد</t>
+          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3570,19 +3570,19 @@
       </c>
       <c r="E115" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>201834</t>
+          <t>201825</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
+          <t>الحمزه عماد محمد</t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3597,19 +3597,19 @@
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>201838</t>
+          <t>201834</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>سائد عاصم سليمان اسماعيل الاغا</t>
+          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="E117" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>201840</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>يونس اسماعيل سليمان</t>
+          <t>سائد عاصم سليمان اسماعيل الاغا</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3651,19 +3651,19 @@
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>201880</t>
+          <t>201840</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>شيماء عبد الباسط عبد الصمد درويش</t>
+          <t>يونس اسماعيل سليمان</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3678,19 +3678,19 @@
       </c>
       <c r="E119" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>201931</t>
+          <t>201880</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">بكر عمر محى الدين  </t>
+          <t>شيماء عبد الباسط عبد الصمد درويش</t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3705,19 +3705,19 @@
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>201954</t>
+          <t>201931</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد صباح محمد </t>
+          <t xml:space="preserve">بكر عمر محى الدين  </t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3732,19 +3732,19 @@
       </c>
       <c r="E121" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>201959</t>
+          <t>201954</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">صافى محمد عبد </t>
+          <t xml:space="preserve">احمد صباح محمد </t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3759,19 +3759,19 @@
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>201990</t>
+          <t>201959</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>زينب اسعد عبد الله المحمداوى</t>
+          <t xml:space="preserve">صافى محمد عبد </t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3786,19 +3786,19 @@
       </c>
       <c r="E123" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>201990</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
+          <t>زينب اسعد عبد الله المحمداوى</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3813,19 +3813,19 @@
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>202022</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">سالى محمد حسن   </t>
+          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3840,19 +3840,19 @@
       </c>
       <c r="E125" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>202028</t>
+          <t>202022</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسن ضرغام كمال </t>
+          <t xml:space="preserve">سالى محمد حسن   </t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3867,19 +3867,19 @@
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>202041</t>
+          <t>202028</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد سعد وحيد </t>
+          <t xml:space="preserve">حسن ضرغام كمال </t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="E127" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>202089</t>
+          <t>202041</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مينا حسنين عباس </t>
+          <t xml:space="preserve">محمد سعد وحيد </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3921,19 +3921,19 @@
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>202162</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>محمد عاهد محمد الصرايره</t>
+          <t xml:space="preserve">مينا حسنين عباس </t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3948,19 +3948,19 @@
       </c>
       <c r="E129" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>210624</t>
+          <t>202162</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>محمد سمير يونس محمد</t>
+          <t>محمد عاهد محمد الصرايره</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3975,19 +3975,19 @@
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>210680</t>
+          <t>210624</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>مصطفى حمدان عطا احمد عبد الله</t>
+          <t>محمد سمير يونس محمد</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -4002,19 +4002,19 @@
       </c>
       <c r="E131" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>210728</t>
+          <t>210680</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>ندى احمد عقل على</t>
+          <t>مصطفى حمدان عطا احمد عبد الله</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4029,19 +4029,19 @@
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>210793</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>معاذ نزال طحينه</t>
+          <t>ندى احمد عقل على</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4056,19 +4056,19 @@
       </c>
       <c r="E133" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>210923</t>
+          <t>210793</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>علاء على حسن الاسمر</t>
+          <t>معاذ نزال طحينه</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4083,19 +4083,19 @@
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>211004</t>
+          <t>210923</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>منتصر صالح عيسى الخطيب</t>
+          <t>علاء على حسن الاسمر</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4110,19 +4110,19 @@
       </c>
       <c r="E135" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>211010</t>
+          <t>211004</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>روان فيصل احمد محمد</t>
+          <t>منتصر صالح عيسى الخطيب</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4137,19 +4137,19 @@
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>211043</t>
+          <t>211010</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>حلا محمد ياسر</t>
+          <t>روان فيصل احمد محمد</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4164,19 +4164,19 @@
       </c>
       <c r="E137" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>211046</t>
+          <t>211043</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>نوف عبد الرحمن عبد الجليل محمد</t>
+          <t>حلا محمد ياسر</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4191,19 +4191,19 @@
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>211079</t>
+          <t>211046</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>حسن محمد محى الدين بابكر</t>
+          <t>نوف عبد الرحمن عبد الجليل محمد</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4218,19 +4218,19 @@
       </c>
       <c r="E139" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>211086</t>
+          <t>211079</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
+          <t>حسن محمد محى الدين بابكر</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4245,19 +4245,19 @@
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>211092</t>
+          <t>211086</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t>يارا اسماعيل ابراهيم درويش</t>
+          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4272,19 +4272,19 @@
       </c>
       <c r="E141" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>211096</t>
+          <t>211092</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
+          <t>يارا اسماعيل ابراهيم درويش</t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4299,19 +4299,19 @@
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>211102</t>
+          <t>211096</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>باسل عبد المجيد مصطفى الاعمر</t>
+          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4326,19 +4326,19 @@
       </c>
       <c r="E143" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>211111</t>
+          <t>211102</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>عمار عبد المهيمن الساخن</t>
+          <t>باسل عبد المجيد مصطفى الاعمر</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4353,19 +4353,19 @@
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>211118</t>
+          <t>211111</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>راما سماعيل محمود فرج فريحات</t>
+          <t>عمار عبد المهيمن الساخن</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4380,19 +4380,19 @@
       </c>
       <c r="E145" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>211121</t>
+          <t>211118</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>فراس وائل احمد سعيد</t>
+          <t>راما سماعيل محمود فرج فريحات</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>211131</t>
+          <t>211121</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
+          <t>فراس وائل احمد سعيد</t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4434,19 +4434,19 @@
       </c>
       <c r="E147" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>211133</t>
+          <t>211131</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
+          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4461,19 +4461,19 @@
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>211133</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>ضرغام بشير حامد بشير</t>
+          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4488,19 +4488,19 @@
       </c>
       <c r="E149" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>211146</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
+          <t>ضرغام بشير حامد بشير</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4515,19 +4515,19 @@
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>211147</t>
+          <t>211146</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>رزان محمد بله عبد الله</t>
+          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4542,19 +4542,19 @@
       </c>
       <c r="E151" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>211167</t>
+          <t>211147</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>امينه مجدى محمد مشعل</t>
+          <t>رزان محمد بله عبد الله</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4569,19 +4569,19 @@
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>211169</t>
+          <t>211167</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>سفيان عبد الله محمد حمران</t>
+          <t>امينه مجدى محمد مشعل</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4596,19 +4596,19 @@
       </c>
       <c r="E153" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>211174</t>
+          <t>211169</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
+          <t>سفيان عبد الله محمد حمران</t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4623,19 +4623,19 @@
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>211175</t>
+          <t>211174</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
+          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="E155" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>211177</t>
+          <t>211175</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
+          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4677,19 +4677,19 @@
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>211189</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t>عمر عبد العزيز الزعبي</t>
+          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4704,19 +4704,19 @@
       </c>
       <c r="E157" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>211197</t>
+          <t>211189</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
+          <t>عمر عبد العزيز الزعبي</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4731,19 +4731,19 @@
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>211197</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب على محمد الخرابشه </t>
+          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4758,19 +4758,19 @@
       </c>
       <c r="E159" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>211216</t>
+          <t>211210</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>احمد على محمد على</t>
+          <t xml:space="preserve">صهيب على محمد الخرابشه </t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4785,19 +4785,19 @@
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>211217</t>
+          <t>211216</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
+          <t>احمد على محمد على</t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4812,19 +4812,19 @@
       </c>
       <c r="E161" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>211242</t>
+          <t>211217</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
+          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4839,19 +4839,19 @@
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>211245</t>
+          <t>211242</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t>زهره حامد سعد الله عبد الله</t>
+          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4866,19 +4866,19 @@
       </c>
       <c r="E163" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>211246</t>
+          <t>211245</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن شحاده حسين طرخان</t>
+          <t>زهره حامد سعد الله عبد الله</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4893,19 +4893,19 @@
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>211741</t>
+          <t>211246</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد منار احمد العوينى  </t>
+          <t>عبد الرحمن شحاده حسين طرخان</t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4920,19 +4920,19 @@
       </c>
       <c r="E165" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>201007</t>
+          <t>211741</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>اسامه خالد محسن المطار</t>
+          <t xml:space="preserve">احمد منار احمد العوينى  </t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4942,24 +4942,24 @@
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>211232</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>دانه جاسر محمد سعيد مسعود</t>
+          <t>اسامه خالد محسن المطار</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4974,19 +4974,19 @@
       </c>
       <c r="E167" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>211251</t>
+          <t>211232</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>انوار يوسف موسى الزعبى</t>
+          <t>دانه جاسر محمد سعيد مسعود</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5001,19 +5001,19 @@
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>211262</t>
+          <t>211251</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>رغد ابراهيم محمد ابو طير</t>
+          <t>انوار يوسف موسى الزعبى</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5028,19 +5028,19 @@
       </c>
       <c r="E169" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>211263</t>
+          <t>211262</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
+          <t>رغد ابراهيم محمد ابو طير</t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5055,19 +5055,19 @@
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>211267</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t>قيس اسامه عبد الله هياجنه</t>
+          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5082,19 +5082,19 @@
       </c>
       <c r="E171" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>211276</t>
+          <t>211267</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>كمال وحيد محمد كمال عناتى</t>
+          <t>قيس اسامه عبد الله هياجنه</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5109,19 +5109,19 @@
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>211286</t>
+          <t>211276</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>اياد نبيل صادق طل</t>
+          <t>كمال وحيد محمد كمال عناتى</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5136,19 +5136,19 @@
       </c>
       <c r="E173" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>211288</t>
+          <t>211286</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Ibrahim Taha Salama Helles</t>
+          <t>اياد نبيل صادق طل</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5163,19 +5163,19 @@
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>211295</t>
+          <t>211288</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>هبه عبد الحميد عبد الله محمد</t>
+          <t>Ibrahim Taha Salama Helles</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5190,19 +5190,19 @@
       </c>
       <c r="E175" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>211298</t>
+          <t>211295</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>احمد عدنان محمود الخالد</t>
+          <t>هبه عبد الحميد عبد الله محمد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5217,19 +5217,19 @@
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>211299</t>
+          <t>211298</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>محمد منير راضى خرفان</t>
+          <t>احمد عدنان محمود الخالد</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5244,19 +5244,19 @@
       </c>
       <c r="E177" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>211311</t>
+          <t>211299</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>سولارا حسن صلاح الدين محمد</t>
+          <t>محمد منير راضى خرفان</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5271,19 +5271,19 @@
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>211348</t>
+          <t>211311</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>محمد السيد عبد المنعم الغباشى</t>
+          <t>سولارا حسن صلاح الدين محمد</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5298,19 +5298,19 @@
       </c>
       <c r="E179" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>211399</t>
+          <t>211348</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>بسنت علاء الدين احمد محمد مرزوق</t>
+          <t>محمد السيد عبد المنعم الغباشى</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5325,19 +5325,19 @@
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>211415</t>
+          <t>211399</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>محمد هشام محمد عبد الوهاب</t>
+          <t>بسنت علاء الدين احمد محمد مرزوق</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5352,19 +5352,19 @@
       </c>
       <c r="E181" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>211451</t>
+          <t>211415</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>كارين ماجد شرقاوى يعقوب خليل</t>
+          <t>محمد هشام محمد عبد الوهاب</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5379,19 +5379,19 @@
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>211457</t>
+          <t>211451</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>جودى محمد احمد شديد</t>
+          <t>كارين ماجد شرقاوى يعقوب خليل</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="E183" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>211486</t>
+          <t>211457</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
+          <t>جودى محمد احمد شديد</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5433,19 +5433,19 @@
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>211539</t>
+          <t>211486</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>عمرو هانى صالح امين حسين الصفتى</t>
+          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5460,19 +5460,19 @@
       </c>
       <c r="E185" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>211553</t>
+          <t>211539</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>ريم السباعى زياد سليمان</t>
+          <t>عمرو هانى صالح امين حسين الصفتى</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5487,19 +5487,19 @@
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>211559</t>
+          <t>211553</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>رقيه صفوان محمد تيسير خضير</t>
+          <t>ريم السباعى زياد سليمان</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5514,19 +5514,19 @@
       </c>
       <c r="E187" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>211560</t>
+          <t>211559</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>عمار ياسر الصادق محمد</t>
+          <t>رقيه صفوان محمد تيسير خضير</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5541,19 +5541,19 @@
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>211575</t>
+          <t>211560</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>ايلاف الصادق عبد الملك ابراهيم</t>
+          <t>عمار ياسر الصادق محمد</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5568,19 +5568,19 @@
       </c>
       <c r="E189" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>211579</t>
+          <t>211575</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
+          <t>ايلاف الصادق عبد الملك ابراهيم</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5595,19 +5595,19 @@
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>211590</t>
+          <t>211579</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
+          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5622,19 +5622,19 @@
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>211598</t>
+          <t>211590</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>اسحاق محمد على قاسم الصلولى</t>
+          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5649,19 +5649,19 @@
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>211603</t>
+          <t>211598</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>ريم رائد عبد الرحمن ابو جاسر</t>
+          <t>اسحاق محمد على قاسم الصلولى</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5676,19 +5676,19 @@
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>211617</t>
+          <t>211603</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>عادل عبد السلام احمد العبادى</t>
+          <t>ريم رائد عبد الرحمن ابو جاسر</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5703,19 +5703,19 @@
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>211619</t>
+          <t>211617</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>معاذ سامر عبد العزيز دردس</t>
+          <t>عادل عبد السلام احمد العبادى</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5730,19 +5730,19 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>211621</t>
+          <t>211619</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>عثمان محمد نادر كامل</t>
+          <t>معاذ سامر عبد العزيز دردس</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5757,19 +5757,19 @@
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>211623</t>
+          <t>211621</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>يحيى عز العرب احمد العزه</t>
+          <t>عثمان محمد نادر كامل</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5784,19 +5784,19 @@
       </c>
       <c r="E197" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>211631</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>فرح احمد عبد الهادى الزعاتره</t>
+          <t>يحيى عز العرب احمد العزه</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5811,19 +5811,19 @@
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>211635</t>
+          <t>211631</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
+          <t>فرح احمد عبد الهادى الزعاتره</t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5838,19 +5838,19 @@
       </c>
       <c r="E199" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>211637</t>
+          <t>211635</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>مؤيد جميل راسم الريماوى</t>
+          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5865,19 +5865,19 @@
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>211643</t>
+          <t>211637</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>Omar A H Daraghmeh</t>
+          <t>مؤيد جميل راسم الريماوى</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5892,19 +5892,19 @@
       </c>
       <c r="E201" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>211648</t>
+          <t>211643</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
+          <t>Omar A H Daraghmeh</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5919,19 +5919,19 @@
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>211655</t>
+          <t>211648</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
+          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5946,19 +5946,19 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>211662</t>
+          <t>211655</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>غاده بنت جابر بن محمد طوطيه</t>
+          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5973,19 +5973,19 @@
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>211663</t>
+          <t>211662</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>ايمن احمد على عبده</t>
+          <t>غاده بنت جابر بن محمد طوطيه</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -6000,19 +6000,19 @@
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>211670</t>
+          <t>211663</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>اسامه اديب على عبده الشامى</t>
+          <t>ايمن احمد على عبده</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6027,19 +6027,19 @@
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>211672</t>
+          <t>211670</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
+          <t>اسامه اديب على عبده الشامى</t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6054,19 +6054,19 @@
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>211680</t>
+          <t>211672</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>لمى طلال محمد البدور</t>
+          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6081,19 +6081,19 @@
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>211687</t>
+          <t>211680</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>خيران سلطان على الحيجنه</t>
+          <t>لمى طلال محمد البدور</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6108,19 +6108,19 @@
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>211690</t>
+          <t>211687</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Younes Zouhair Almbarak</t>
+          <t>خيران سلطان على الحيجنه</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6135,19 +6135,19 @@
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>211697</t>
+          <t>211690</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>فاطمه الهادى ابراهيم احمد</t>
+          <t>Younes Zouhair Almbarak</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6162,19 +6162,19 @@
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>211699</t>
+          <t>211697</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف عادل على محمد احمد   </t>
+          <t>فاطمه الهادى ابراهيم احمد</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6189,19 +6189,19 @@
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>211710</t>
+          <t>211699</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t>جنات فايز عزمى شماس</t>
+          <t xml:space="preserve">رهف عادل على محمد احمد   </t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6216,19 +6216,19 @@
       </c>
       <c r="E213" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>211711</t>
+          <t>211710</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد الله سالم الحويان</t>
+          <t>جنات فايز عزمى شماس</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6243,19 +6243,19 @@
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>211713</t>
+          <t>211711</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>صفاء محمود عبد الرحيم الامين</t>
+          <t>احمد عبد الله سالم الحويان</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6270,19 +6270,19 @@
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>211720</t>
+          <t>211713</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>ساره محمد احمد البيروتى</t>
+          <t>صفاء محمود عبد الرحيم الامين</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6297,19 +6297,19 @@
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>211723</t>
+          <t>211720</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>احمد حسن خليفه التليسى</t>
+          <t>ساره محمد احمد البيروتى</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6324,19 +6324,19 @@
       </c>
       <c r="E217" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>211725</t>
+          <t>211723</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>زينب رفعت محمد عبد القيوم</t>
+          <t>احمد حسن خليفه التليسى</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6351,19 +6351,19 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>211728</t>
+          <t>211725</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
+          <t>زينب رفعت محمد عبد القيوم</t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6378,19 +6378,19 @@
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>211732</t>
+          <t>211728</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>محمد يامن فراس الامام</t>
+          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6405,19 +6405,19 @@
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>211735</t>
+          <t>211732</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
+          <t>محمد يامن فراس الامام</t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6432,19 +6432,19 @@
       </c>
       <c r="E221" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>201766</t>
+          <t>211735</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>هاجر عز العرب محمد عبد الواحد العكاد</t>
+          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6454,24 +6454,24 @@
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>B2E</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
         <is>
-          <t>211737</t>
+          <t>201766</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صلاح الدين محمد محمود الدروبى  </t>
+          <t>هاجر عز العرب محمد عبد الواحد العكاد</t>
         </is>
       </c>
       <c r="C223" s="4" t="inlineStr">
@@ -6486,19 +6486,19 @@
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>211742</t>
+          <t>211737</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>فيصل محمد احمد قواقزه</t>
+          <t xml:space="preserve">صلاح الدين محمد محمود الدروبى  </t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -6513,19 +6513,19 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
         <is>
-          <t>211745</t>
+          <t>211742</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">زيد خضر يةسف ابو ناب </t>
+          <t>فيصل محمد احمد قواقزه</t>
         </is>
       </c>
       <c r="C225" s="4" t="inlineStr">
@@ -6540,19 +6540,19 @@
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>211750</t>
+          <t>211745</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>محمد عباس محمد محمد ابو عساج</t>
+          <t xml:space="preserve">زيد خضر يةسف ابو ناب </t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
@@ -6567,19 +6567,19 @@
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="4" t="inlineStr">
         <is>
-          <t>211752</t>
+          <t>211750</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حلا رياض حمضمض </t>
+          <t>محمد عباس محمد محمد ابو عساج</t>
         </is>
       </c>
       <c r="C227" s="4" t="inlineStr">
@@ -6594,19 +6594,19 @@
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>211753</t>
+          <t>211752</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>ياسر سمير السيد محمد</t>
+          <t xml:space="preserve">حلا رياض حمضمض </t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
@@ -6621,19 +6621,19 @@
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
         <is>
-          <t>211757</t>
+          <t>211753</t>
         </is>
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
-          <t>مريم وليد سالم</t>
+          <t>ياسر سمير السيد محمد</t>
         </is>
       </c>
       <c r="C229" s="4" t="inlineStr">
@@ -6648,19 +6648,19 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>211764</t>
+          <t>211757</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">فؤاد تيسير سعيد ابو اللبن  </t>
+          <t>مريم وليد سالم</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
@@ -6675,19 +6675,19 @@
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
         <is>
-          <t>211765</t>
+          <t>211764</t>
         </is>
       </c>
       <c r="B231" s="4" t="inlineStr">
         <is>
-          <t>محمد عبد الرقيب فايد عبد العظيم</t>
+          <t xml:space="preserve">فؤاد تيسير سعيد ابو اللبن  </t>
         </is>
       </c>
       <c r="C231" s="4" t="inlineStr">
@@ -6702,19 +6702,19 @@
       </c>
       <c r="E231" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>211769</t>
+          <t>211765</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>محمد ايمن الجمعه الحديد</t>
+          <t>محمد عبد الرقيب فايد عبد العظيم</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
@@ -6729,19 +6729,19 @@
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
         <is>
-          <t>211777</t>
+          <t>211769</t>
         </is>
       </c>
       <c r="B233" s="4" t="inlineStr">
         <is>
-          <t>غاده خالد شرف الدين حاج يوسف</t>
+          <t>محمد ايمن الجمعه الحديد</t>
         </is>
       </c>
       <c r="C233" s="4" t="inlineStr">
@@ -6756,19 +6756,19 @@
       </c>
       <c r="E233" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>211783</t>
+          <t>211777</t>
         </is>
       </c>
       <c r="B234" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">حمزه احمد فضل العزازى  </t>
+          <t>غاده خالد شرف الدين حاج يوسف</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
@@ -6783,19 +6783,19 @@
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
         <is>
-          <t>211790</t>
+          <t>211783</t>
         </is>
       </c>
       <c r="B235" s="4" t="inlineStr">
         <is>
-          <t>اصيل محمود زريقات</t>
+          <t xml:space="preserve">حمزه احمد فضل العزازى  </t>
         </is>
       </c>
       <c r="C235" s="4" t="inlineStr">
@@ -6810,19 +6810,19 @@
       </c>
       <c r="E235" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>211791</t>
+          <t>211790</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>سيف الدين محمد احمد محمد</t>
+          <t>اصيل محمود زريقات</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -6837,19 +6837,19 @@
       </c>
       <c r="E236" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="4" t="inlineStr">
         <is>
-          <t>211799</t>
+          <t>211791</t>
         </is>
       </c>
       <c r="B237" s="4" t="inlineStr">
         <is>
-          <t>على محمد امين اليمانى</t>
+          <t>سيف الدين محمد احمد محمد</t>
         </is>
       </c>
       <c r="C237" s="4" t="inlineStr">
@@ -6864,19 +6864,19 @@
       </c>
       <c r="E237" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>211822</t>
+          <t>211799</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>محمد مطر اكرم مقاط</t>
+          <t>على محمد امين اليمانى</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
@@ -6891,19 +6891,19 @@
       </c>
       <c r="E238" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
         <is>
-          <t>211854</t>
+          <t>211822</t>
         </is>
       </c>
       <c r="B239" s="4" t="inlineStr">
         <is>
-          <t>عطيه عائد محمد مصباح حموده</t>
+          <t>محمد مطر اكرم مقاط</t>
         </is>
       </c>
       <c r="C239" s="4" t="inlineStr">
@@ -6918,19 +6918,19 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>211865</t>
+          <t>211854</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>ساره جميل سيد محمد الجندى</t>
+          <t>عطيه عائد محمد مصباح حموده</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
@@ -6945,19 +6945,19 @@
       </c>
       <c r="E240" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
         <is>
-          <t>211866</t>
+          <t>211865</t>
         </is>
       </c>
       <c r="B241" s="4" t="inlineStr">
         <is>
-          <t>امير عناد خلف الثوابيه</t>
+          <t>ساره جميل سيد محمد الجندى</t>
         </is>
       </c>
       <c r="C241" s="4" t="inlineStr">
@@ -6972,19 +6972,19 @@
       </c>
       <c r="E241" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>211872</t>
+          <t>211866</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>عليان محمد عليان العزام</t>
+          <t>امير عناد خلف الثوابيه</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -6999,19 +6999,19 @@
       </c>
       <c r="E242" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
         <is>
-          <t>211876</t>
+          <t>211872</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>فارس اسعد صادق ابو رميله</t>
+          <t>عليان محمد عليان العزام</t>
         </is>
       </c>
       <c r="C243" s="4" t="inlineStr">
@@ -7026,19 +7026,19 @@
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>211877</t>
+          <t>211876</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>عفراء محمود حاج على احمد</t>
+          <t>فارس اسعد صادق ابو رميله</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
@@ -7053,19 +7053,19 @@
       </c>
       <c r="E244" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="4" t="inlineStr">
         <is>
-          <t>211882</t>
+          <t>211877</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>شمس فخر الدين محمد الزبير</t>
+          <t>عفراء محمود حاج على احمد</t>
         </is>
       </c>
       <c r="C245" s="4" t="inlineStr">
@@ -7080,19 +7080,19 @@
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>211887</t>
+          <t>211882</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>عايش غسان عايش الهباهبه</t>
+          <t>شمس فخر الدين محمد الزبير</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
@@ -7107,19 +7107,19 @@
       </c>
       <c r="E246" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
         <is>
-          <t>211889</t>
+          <t>211887</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>فاطمه الزهراء ابرهيم محجوب فضل المولى</t>
+          <t>عايش غسان عايش الهباهبه</t>
         </is>
       </c>
       <c r="C247" s="4" t="inlineStr">
@@ -7134,19 +7134,19 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>211895</t>
+          <t>211889</t>
         </is>
       </c>
       <c r="B248" s="3" t="inlineStr">
         <is>
-          <t>غفران كاظم ابراهيم انشاصى</t>
+          <t>فاطمه الزهراء ابرهيم محجوب فضل المولى</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
@@ -7161,19 +7161,19 @@
       </c>
       <c r="E248" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
         <is>
-          <t>211898</t>
+          <t>211895</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>انس نضال خليفه</t>
+          <t>غفران كاظم ابراهيم انشاصى</t>
         </is>
       </c>
       <c r="C249" s="4" t="inlineStr">
@@ -7188,19 +7188,19 @@
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>211907</t>
+          <t>211898</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>دانيه معاويه محمد عمر باجابر</t>
+          <t>انس نضال خليفه</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
@@ -7215,19 +7215,19 @@
       </c>
       <c r="E250" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
         <is>
-          <t>211908</t>
+          <t>211907</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>نفيسه عادل احمد محمد</t>
+          <t>دانيه معاويه محمد عمر باجابر</t>
         </is>
       </c>
       <c r="C251" s="4" t="inlineStr">
@@ -7242,19 +7242,19 @@
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>211926</t>
+          <t>211908</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مريم عبد المنعم الشيبانى عاشور   </t>
+          <t>نفيسه عادل احمد محمد</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
@@ -7269,19 +7269,19 @@
       </c>
       <c r="E252" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
         <is>
-          <t>211933</t>
+          <t>211926</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح عبد الكريم محمد قاسم </t>
+          <t xml:space="preserve">مريم عبد المنعم الشيبانى عاشور   </t>
         </is>
       </c>
       <c r="C253" s="4" t="inlineStr">
@@ -7296,19 +7296,19 @@
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>211936</t>
+          <t>211933</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>مريم صلاح الدين على عبد الله</t>
+          <t xml:space="preserve">مرح عبد الكريم محمد قاسم </t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
@@ -7323,19 +7323,19 @@
       </c>
       <c r="E254" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
         <is>
-          <t>211959</t>
+          <t>211936</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">معتصم محمد فتحى مصباح العابودى  </t>
+          <t>مريم صلاح الدين على عبد الله</t>
         </is>
       </c>
       <c r="C255" s="4" t="inlineStr">
@@ -7350,19 +7350,19 @@
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>211962</t>
+          <t>211959</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد سليمان شطناوى</t>
+          <t xml:space="preserve">معتصم محمد فتحى مصباح العابودى  </t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
@@ -7377,19 +7377,19 @@
       </c>
       <c r="E256" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="4" t="inlineStr">
         <is>
-          <t>211973</t>
+          <t>211962</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>رزان اشرف صلاح محمد</t>
+          <t>عمر محمد سليمان شطناوى</t>
         </is>
       </c>
       <c r="C257" s="4" t="inlineStr">
@@ -7404,19 +7404,19 @@
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>211975</t>
+          <t>211973</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>Hoda Mojadidy</t>
+          <t>رزان اشرف صلاح محمد</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
@@ -7431,19 +7431,19 @@
       </c>
       <c r="E258" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="4" t="inlineStr">
         <is>
-          <t>211979</t>
+          <t>211975</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>رند رائد يوسف طليب</t>
+          <t>Hoda Mojadidy</t>
         </is>
       </c>
       <c r="C259" s="4" t="inlineStr">
@@ -7458,19 +7458,19 @@
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>211984</t>
+          <t>211979</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>توفيق محمد جلال سراج</t>
+          <t>رند رائد يوسف طليب</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
@@ -7485,19 +7485,19 @@
       </c>
       <c r="E260" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
         <is>
-          <t>211992</t>
+          <t>211984</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>اياس رائد محمود النحاس</t>
+          <t>توفيق محمد جلال سراج</t>
         </is>
       </c>
       <c r="C261" s="4" t="inlineStr">
@@ -7512,19 +7512,19 @@
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>211998</t>
+          <t>211992</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>سلاف حسام الدين الرفاعى</t>
+          <t>اياس رائد محمود النحاس</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
@@ -7539,19 +7539,19 @@
       </c>
       <c r="E262" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
         <is>
-          <t>212014</t>
+          <t>211998</t>
         </is>
       </c>
       <c r="B263" s="4" t="inlineStr">
         <is>
-          <t>البتول هيثم عرنوس</t>
+          <t>سلاف حسام الدين الرفاعى</t>
         </is>
       </c>
       <c r="C263" s="4" t="inlineStr">
@@ -7566,19 +7566,19 @@
       </c>
       <c r="E263" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>212028</t>
+          <t>212014</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>سنيوره خالد محمد جبر</t>
+          <t>البتول هيثم عرنوس</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
@@ -7593,19 +7593,19 @@
       </c>
       <c r="E264" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="4" t="inlineStr">
         <is>
-          <t>212038</t>
+          <t>212028</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>رقيه حسين محمد رضا</t>
+          <t>سنيوره خالد محمد جبر</t>
         </is>
       </c>
       <c r="C265" s="4" t="inlineStr">
@@ -7620,19 +7620,19 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>212054</t>
+          <t>212038</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>عدى ابراهيم العباس</t>
+          <t>رقيه حسين محمد رضا</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
@@ -7647,19 +7647,19 @@
       </c>
       <c r="E266" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="4" t="inlineStr">
         <is>
-          <t>212060</t>
+          <t>212054</t>
         </is>
       </c>
       <c r="B267" s="4" t="inlineStr">
         <is>
-          <t>محمد عثمان ابراهيم تمر</t>
+          <t>عدى ابراهيم العباس</t>
         </is>
       </c>
       <c r="C267" s="4" t="inlineStr">
@@ -7674,19 +7674,19 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>212071</t>
+          <t>212060</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>عبد المجيد ناصر حسن قفله</t>
+          <t>محمد عثمان ابراهيم تمر</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
@@ -7701,19 +7701,19 @@
       </c>
       <c r="E268" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
         <is>
-          <t>212079</t>
+          <t>212071</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>اروى عوض محمد همد</t>
+          <t>عبد المجيد ناصر حسن قفله</t>
         </is>
       </c>
       <c r="C269" s="4" t="inlineStr">
@@ -7728,19 +7728,19 @@
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>212083</t>
+          <t>212079</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>عبد الكريم كمال عوض محمد عبد القادر</t>
+          <t>اروى عوض محمد همد</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
@@ -7755,19 +7755,19 @@
       </c>
       <c r="E270" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="4" t="inlineStr">
         <is>
-          <t>212084</t>
+          <t>212083</t>
         </is>
       </c>
       <c r="B271" s="4" t="inlineStr">
         <is>
-          <t>ست البنات عثمان حمد عثمان</t>
+          <t>عبد الكريم كمال عوض محمد عبد القادر</t>
         </is>
       </c>
       <c r="C271" s="4" t="inlineStr">
@@ -7782,19 +7782,19 @@
       </c>
       <c r="E271" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>212094</t>
+          <t>212084</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>رهف مالك فخرى الجواهره</t>
+          <t>ست البنات عثمان حمد عثمان</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
@@ -7809,19 +7809,19 @@
       </c>
       <c r="E272" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="4" t="inlineStr">
         <is>
-          <t>212101</t>
+          <t>212094</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>Haoua Souleyman Yaya</t>
+          <t>رهف مالك فخرى الجواهره</t>
         </is>
       </c>
       <c r="C273" s="4" t="inlineStr">
@@ -7836,19 +7836,19 @@
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>212119</t>
+          <t>212101</t>
         </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الهادى محمود بكرى  </t>
+          <t>Haoua Souleyman Yaya</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
@@ -7863,19 +7863,19 @@
       </c>
       <c r="E274" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
         <is>
-          <t>212121</t>
+          <t>212119</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>ماريا يوسف عثمان على</t>
+          <t xml:space="preserve">عبد الهادى محمود بكرى  </t>
         </is>
       </c>
       <c r="C275" s="4" t="inlineStr">
@@ -7890,19 +7890,19 @@
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>212123</t>
+          <t>212121</t>
         </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
-          <t>محمد يونس سرهيد لهيب</t>
+          <t>ماريا يوسف عثمان على</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
@@ -7917,19 +7917,19 @@
       </c>
       <c r="E276" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
         <is>
-          <t>212135</t>
+          <t>212123</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>شهد فيصل سر الختم المكى</t>
+          <t>محمد يونس سرهيد لهيب</t>
         </is>
       </c>
       <c r="C277" s="4" t="inlineStr">
@@ -7939,24 +7939,24 @@
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>B2F</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
         <is>
-          <t>212137</t>
+          <t>212135</t>
         </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
-          <t>سجى ايمن مصطفى عبد الحميد</t>
+          <t>شهد فيصل سر الختم المكى</t>
         </is>
       </c>
       <c r="C278" s="3" t="inlineStr">
@@ -7971,19 +7971,19 @@
       </c>
       <c r="E278" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
         <is>
-          <t>212144</t>
+          <t>212137</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>الن يوسف حامد يوسف</t>
+          <t>سجى ايمن مصطفى عبد الحميد</t>
         </is>
       </c>
       <c r="C279" s="4" t="inlineStr">
@@ -7998,19 +7998,19 @@
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>212151</t>
+          <t>212144</t>
         </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
-          <t>ماهر صالح جابر عثمان</t>
+          <t>الن يوسف حامد يوسف</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
@@ -8025,19 +8025,19 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
         <is>
-          <t>212152</t>
+          <t>212151</t>
         </is>
       </c>
       <c r="B281" s="4" t="inlineStr">
         <is>
-          <t>محمد مصطفى عبد اللطيف مصطفى</t>
+          <t>ماهر صالح جابر عثمان</t>
         </is>
       </c>
       <c r="C281" s="4" t="inlineStr">
@@ -8052,19 +8052,19 @@
       </c>
       <c r="E281" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>212154</t>
+          <t>212152</t>
         </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>مؤيد سلوم سالم</t>
+          <t>محمد مصطفى عبد اللطيف مصطفى</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
@@ -8079,19 +8079,19 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
         <is>
-          <t>212155</t>
+          <t>212154</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>مجد عبد الجبار الفاضل</t>
+          <t>مؤيد سلوم سالم</t>
         </is>
       </c>
       <c r="C283" s="4" t="inlineStr">
@@ -8106,19 +8106,19 @@
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
         <is>
-          <t>212161</t>
+          <t>212155</t>
         </is>
       </c>
       <c r="B284" s="3" t="inlineStr">
         <is>
-          <t>شيرين خالد عبد المنعم محمد</t>
+          <t>مجد عبد الجبار الفاضل</t>
         </is>
       </c>
       <c r="C284" s="3" t="inlineStr">
@@ -8133,19 +8133,19 @@
       </c>
       <c r="E284" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
         <is>
-          <t>212183</t>
+          <t>212161</t>
         </is>
       </c>
       <c r="B285" s="4" t="inlineStr">
         <is>
-          <t>سالى عبد الباسط سليمان مصطفى</t>
+          <t>شيرين خالد عبد المنعم محمد</t>
         </is>
       </c>
       <c r="C285" s="4" t="inlineStr">
@@ -8160,19 +8160,19 @@
       </c>
       <c r="E285" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>212184</t>
+          <t>212183</t>
         </is>
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saadatu Mohammed Ahmed </t>
+          <t>سالى عبد الباسط سليمان مصطفى</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
@@ -8187,19 +8187,19 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
         <is>
-          <t>212193</t>
+          <t>212184</t>
         </is>
       </c>
       <c r="B287" s="4" t="inlineStr">
         <is>
-          <t>افنان عكرمه حسن محمد</t>
+          <t xml:space="preserve">Saadatu Mohammed Ahmed </t>
         </is>
       </c>
       <c r="C287" s="4" t="inlineStr">
@@ -8214,19 +8214,19 @@
       </c>
       <c r="E287" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
         <is>
-          <t>212195</t>
+          <t>212193</t>
         </is>
       </c>
       <c r="B288" s="3" t="inlineStr">
         <is>
-          <t>مؤيد ادريس محمد نول</t>
+          <t>افنان عكرمه حسن محمد</t>
         </is>
       </c>
       <c r="C288" s="3" t="inlineStr">
@@ -8241,19 +8241,19 @@
       </c>
       <c r="E288" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="4" t="inlineStr">
         <is>
-          <t>212205</t>
+          <t>212195</t>
         </is>
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
-          <t>على محمد الشيخ دفع الله</t>
+          <t>مؤيد ادريس محمد نول</t>
         </is>
       </c>
       <c r="C289" s="4" t="inlineStr">
@@ -8268,19 +8268,19 @@
       </c>
       <c r="E289" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
         <is>
-          <t>212245</t>
+          <t>212205</t>
         </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>الاء مطر فرحه محمد</t>
+          <t>على محمد الشيخ دفع الله</t>
         </is>
       </c>
       <c r="C290" s="3" t="inlineStr">
@@ -8295,19 +8295,19 @@
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="4" t="inlineStr">
         <is>
-          <t>212248</t>
+          <t>212245</t>
         </is>
       </c>
       <c r="B291" s="4" t="inlineStr">
         <is>
-          <t>عمر يعقوب محمد فقير</t>
+          <t>الاء مطر فرحه محمد</t>
         </is>
       </c>
       <c r="C291" s="4" t="inlineStr">
@@ -8322,19 +8322,19 @@
       </c>
       <c r="E291" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
         <is>
-          <t>212254</t>
+          <t>212248</t>
         </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>الرشيد احمد الرشيد سيد احمد</t>
+          <t>عمر يعقوب محمد فقير</t>
         </is>
       </c>
       <c r="C292" s="3" t="inlineStr">
@@ -8349,19 +8349,19 @@
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="4" t="inlineStr">
         <is>
-          <t>212258</t>
+          <t>212254</t>
         </is>
       </c>
       <c r="B293" s="4" t="inlineStr">
         <is>
-          <t>سحر حسين جعفر حسن</t>
+          <t>الرشيد احمد الرشيد سيد احمد</t>
         </is>
       </c>
       <c r="C293" s="4" t="inlineStr">
@@ -8376,19 +8376,19 @@
       </c>
       <c r="E293" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
         <is>
-          <t>212266</t>
+          <t>212258</t>
         </is>
       </c>
       <c r="B294" s="3" t="inlineStr">
         <is>
-          <t>لجين ابو بكر الامين على</t>
+          <t>سحر حسين جعفر حسن</t>
         </is>
       </c>
       <c r="C294" s="3" t="inlineStr">
@@ -8403,19 +8403,19 @@
       </c>
       <c r="E294" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="4" t="inlineStr">
         <is>
-          <t>212279</t>
+          <t>212266</t>
         </is>
       </c>
       <c r="B295" s="4" t="inlineStr">
         <is>
-          <t>قوارير خالد حاج حسن عثمان</t>
+          <t>لجين ابو بكر الامين على</t>
         </is>
       </c>
       <c r="C295" s="4" t="inlineStr">
@@ -8430,19 +8430,19 @@
       </c>
       <c r="E295" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
         <is>
-          <t>212283</t>
+          <t>212279</t>
         </is>
       </c>
       <c r="B296" s="3" t="inlineStr">
         <is>
-          <t>تسنيم خالد محمد فقير</t>
+          <t>قوارير خالد حاج حسن عثمان</t>
         </is>
       </c>
       <c r="C296" s="3" t="inlineStr">
@@ -8457,19 +8457,19 @@
       </c>
       <c r="E296" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
         <is>
-          <t>212291</t>
+          <t>212283</t>
         </is>
       </c>
       <c r="B297" s="4" t="inlineStr">
         <is>
-          <t>عبد الله مصطفى عزيزه</t>
+          <t>تسنيم خالد محمد فقير</t>
         </is>
       </c>
       <c r="C297" s="4" t="inlineStr">
@@ -8484,19 +8484,19 @@
       </c>
       <c r="E297" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>212306</t>
+          <t>212291</t>
         </is>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
-          <t>حسين عماد الدين حسين الطاهر هلال</t>
+          <t>عبد الله مصطفى عزيزه</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
@@ -8511,19 +8511,19 @@
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
         <is>
-          <t>212307</t>
+          <t>212306</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>سدره حسن عبد الله</t>
+          <t>حسين عماد الدين حسين الطاهر هلال</t>
         </is>
       </c>
       <c r="C299" s="4" t="inlineStr">
@@ -8538,19 +8538,19 @@
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
         <is>
-          <t>212314</t>
+          <t>212307</t>
         </is>
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>مرتضى محمد الصادق محمد</t>
+          <t>سدره حسن عبد الله</t>
         </is>
       </c>
       <c r="C300" s="3" t="inlineStr">
@@ -8565,19 +8565,19 @@
       </c>
       <c r="E300" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="4" t="inlineStr">
         <is>
-          <t>212315</t>
+          <t>212314</t>
         </is>
       </c>
       <c r="B301" s="4" t="inlineStr">
         <is>
-          <t>مجتبى محمد الصادق محمد</t>
+          <t>مرتضى محمد الصادق محمد</t>
         </is>
       </c>
       <c r="C301" s="4" t="inlineStr">
@@ -8592,19 +8592,19 @@
       </c>
       <c r="E301" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
         <is>
-          <t>212320</t>
+          <t>212315</t>
         </is>
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>ربى عبد الله احمد بدرى</t>
+          <t>مجتبى محمد الصادق محمد</t>
         </is>
       </c>
       <c r="C302" s="3" t="inlineStr">
@@ -8619,19 +8619,19 @@
       </c>
       <c r="E302" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
         <is>
-          <t>212324</t>
+          <t>212320</t>
         </is>
       </c>
       <c r="B303" s="4" t="inlineStr">
         <is>
-          <t>محمد وليد عثمان جلى</t>
+          <t>ربى عبد الله احمد بدرى</t>
         </is>
       </c>
       <c r="C303" s="4" t="inlineStr">
@@ -8646,19 +8646,19 @@
       </c>
       <c r="E303" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
         <is>
-          <t>212333</t>
+          <t>212324</t>
         </is>
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>غفران امير سعد عبد الله</t>
+          <t>محمد وليد عثمان جلى</t>
         </is>
       </c>
       <c r="C304" s="3" t="inlineStr">
@@ -8673,19 +8673,19 @@
       </c>
       <c r="E304" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="4" t="inlineStr">
         <is>
-          <t>212345</t>
+          <t>212333</t>
         </is>
       </c>
       <c r="B305" s="4" t="inlineStr">
         <is>
-          <t>احمد امير محمد خير الله</t>
+          <t>غفران امير سعد عبد الله</t>
         </is>
       </c>
       <c r="C305" s="4" t="inlineStr">
@@ -8700,19 +8700,19 @@
       </c>
       <c r="E305" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>212346</t>
+          <t>212345</t>
         </is>
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>فخر الدين على محمد سعيد</t>
+          <t>احمد امير محمد خير الله</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
@@ -8727,19 +8727,19 @@
       </c>
       <c r="E306" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="4" t="inlineStr">
         <is>
-          <t>212347</t>
+          <t>212346</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>مصطفى كمال عبد الجليل محمد</t>
+          <t>فخر الدين على محمد سعيد</t>
         </is>
       </c>
       <c r="C307" s="4" t="inlineStr">
@@ -8754,19 +8754,19 @@
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>212362</t>
+          <t>212347</t>
         </is>
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>غفران محمد الغالى على يوسف</t>
+          <t>مصطفى كمال عبد الجليل محمد</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
@@ -8781,19 +8781,19 @@
       </c>
       <c r="E308" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="4" t="inlineStr">
         <is>
-          <t>212368</t>
+          <t>212362</t>
         </is>
       </c>
       <c r="B309" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">شهد عبد الله محمد النور </t>
+          <t>غفران محمد الغالى على يوسف</t>
         </is>
       </c>
       <c r="C309" s="4" t="inlineStr">
@@ -8808,19 +8808,19 @@
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>212370</t>
+          <t>212368</t>
         </is>
       </c>
       <c r="B310" s="3" t="inlineStr">
         <is>
-          <t>السيد الخضر السيد الهادى</t>
+          <t xml:space="preserve">شهد عبد الله محمد النور </t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
@@ -8835,19 +8835,19 @@
       </c>
       <c r="E310" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="4" t="inlineStr">
         <is>
-          <t>212373</t>
+          <t>212370</t>
         </is>
       </c>
       <c r="B311" s="4" t="inlineStr">
         <is>
-          <t>ابراهيم فيصل ابراهيم محمد</t>
+          <t>السيد الخضر السيد الهادى</t>
         </is>
       </c>
       <c r="C311" s="4" t="inlineStr">
@@ -8862,19 +8862,19 @@
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
         <is>
-          <t>212377</t>
+          <t>212373</t>
         </is>
       </c>
       <c r="B312" s="3" t="inlineStr">
         <is>
-          <t>سفانه طاهر محمد عمر</t>
+          <t>ابراهيم فيصل ابراهيم محمد</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr">
@@ -8889,19 +8889,19 @@
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="4" t="inlineStr">
         <is>
-          <t>212414</t>
+          <t>212377</t>
         </is>
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>رينادا ابراهيم سعيد محمد على</t>
+          <t>سفانه طاهر محمد عمر</t>
         </is>
       </c>
       <c r="C313" s="4" t="inlineStr">
@@ -8916,19 +8916,19 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>212431</t>
+          <t>212414</t>
         </is>
       </c>
       <c r="B314" s="3" t="inlineStr">
         <is>
-          <t>صفاء ذكى عباس عبد المطلب</t>
+          <t>رينادا ابراهيم سعيد محمد على</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
@@ -8943,19 +8943,19 @@
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="4" t="inlineStr">
         <is>
-          <t>212433</t>
+          <t>212431</t>
         </is>
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>مصعب مصطفى ادم حامد</t>
+          <t>صفاء ذكى عباس عبد المطلب</t>
         </is>
       </c>
       <c r="C315" s="4" t="inlineStr">
@@ -8970,19 +8970,19 @@
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>212440</t>
+          <t>212433</t>
         </is>
       </c>
       <c r="B316" s="3" t="inlineStr">
         <is>
-          <t>ملاك المعتز عبد الماجد الحاج</t>
+          <t>مصعب مصطفى ادم حامد</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
@@ -8997,19 +8997,19 @@
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="4" t="inlineStr">
         <is>
-          <t>212445</t>
+          <t>212440</t>
         </is>
       </c>
       <c r="B317" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">انفال عبد الدائم نور الدين محمد  </t>
+          <t>ملاك المعتز عبد الماجد الحاج</t>
         </is>
       </c>
       <c r="C317" s="4" t="inlineStr">
@@ -9024,19 +9024,19 @@
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="inlineStr">
         <is>
-          <t>212453</t>
+          <t>212445</t>
         </is>
       </c>
       <c r="B318" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد عبد الله عثمان الشيخ </t>
+          <t xml:space="preserve">انفال عبد الدائم نور الدين محمد  </t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
@@ -9051,19 +9051,19 @@
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="4" t="inlineStr">
         <is>
-          <t>212455</t>
+          <t>212453</t>
         </is>
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">لمى مسلم امام ابراهيم </t>
+          <t xml:space="preserve">احمد عبد الله عثمان الشيخ </t>
         </is>
       </c>
       <c r="C319" s="4" t="inlineStr">
@@ -9078,19 +9078,19 @@
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>212477</t>
+          <t>212455</t>
         </is>
       </c>
       <c r="B320" s="3" t="inlineStr">
         <is>
-          <t>ادريس على عبد الله عبد القادر</t>
+          <t xml:space="preserve">لمى مسلم امام ابراهيم </t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
@@ -9105,19 +9105,19 @@
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="4" t="inlineStr">
         <is>
-          <t>212479</t>
+          <t>212477</t>
         </is>
       </c>
       <c r="B321" s="4" t="inlineStr">
         <is>
-          <t>مناسك معاويه مصطفى ادم</t>
+          <t>ادريس على عبد الله عبد القادر</t>
         </is>
       </c>
       <c r="C321" s="4" t="inlineStr">
@@ -9132,19 +9132,19 @@
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>212501</t>
+          <t>212479</t>
         </is>
       </c>
       <c r="B322" s="3" t="inlineStr">
         <is>
-          <t>اسيل عاطف عوض عبد القادر</t>
+          <t>مناسك معاويه مصطفى ادم</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
@@ -9159,19 +9159,19 @@
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="4" t="inlineStr">
         <is>
-          <t>212511</t>
+          <t>212501</t>
         </is>
       </c>
       <c r="B323" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس هيثم محمود الحسن    </t>
+          <t>اسيل عاطف عوض عبد القادر</t>
         </is>
       </c>
       <c r="C323" s="4" t="inlineStr">
@@ -9186,19 +9186,19 @@
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>212587</t>
+          <t>212511</t>
         </is>
       </c>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>رحمه محمد عبد الحميد حسن</t>
+          <t xml:space="preserve">فارس هيثم محمود الحسن    </t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
@@ -9213,19 +9213,19 @@
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="4" t="inlineStr">
         <is>
-          <t>212588</t>
+          <t>212587</t>
         </is>
       </c>
       <c r="B325" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">وفاء مرسى عبد القادر محمد  </t>
+          <t>رحمه محمد عبد الحميد حسن</t>
         </is>
       </c>
       <c r="C325" s="4" t="inlineStr">
@@ -9240,19 +9240,19 @@
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="3" t="inlineStr">
         <is>
-          <t>212592</t>
+          <t>212588</t>
         </is>
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>امل اشرف حسين عبد العال</t>
+          <t xml:space="preserve">وفاء مرسى عبد القادر محمد  </t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr">
@@ -9267,19 +9267,19 @@
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="4" t="inlineStr">
         <is>
-          <t>212598</t>
+          <t>212592</t>
         </is>
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نصر الله عامر العبد  </t>
+          <t>امل اشرف حسين عبد العال</t>
         </is>
       </c>
       <c r="C327" s="4" t="inlineStr">
@@ -9294,19 +9294,19 @@
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>221758</t>
+          <t>212598</t>
         </is>
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>سعاد عدنان محمد دعيس يونس</t>
+          <t xml:space="preserve">نصر الله عامر العبد  </t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
@@ -9321,19 +9321,19 @@
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="4" t="inlineStr">
         <is>
-          <t>221884</t>
+          <t>221758</t>
         </is>
       </c>
       <c r="B329" s="4" t="inlineStr">
         <is>
-          <t>ليان ياسر عطايا</t>
+          <t>سعاد عدنان محمد دعيس يونس</t>
         </is>
       </c>
       <c r="C329" s="4" t="inlineStr">
@@ -9348,19 +9348,19 @@
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>223003</t>
+          <t>221884</t>
         </is>
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>تسنيم محمد انور</t>
+          <t>ليان ياسر عطايا</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
@@ -9375,19 +9375,19 @@
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="4" t="inlineStr">
         <is>
-          <t>223004</t>
+          <t>223003</t>
         </is>
       </c>
       <c r="B331" s="4" t="inlineStr">
         <is>
-          <t>هاجر عماد حسين حسين</t>
+          <t>تسنيم محمد انور</t>
         </is>
       </c>
       <c r="C331" s="4" t="inlineStr">
@@ -9402,19 +9402,19 @@
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>223005</t>
+          <t>223004</t>
         </is>
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>عمر محمد احمد على محمد حفناوى</t>
+          <t>هاجر عماد حسين حسين</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
@@ -9429,34 +9429,61 @@
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="4" t="inlineStr">
         <is>
+          <t>223005</t>
+        </is>
+      </c>
+      <c r="B333" s="4" t="inlineStr">
+        <is>
+          <t>عمر محمد احمد على محمد حفناوى</t>
+        </is>
+      </c>
+      <c r="C333" s="4" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D333" s="4" t="inlineStr">
+        <is>
+          <t>B2F</t>
+        </is>
+      </c>
+      <c r="E333" s="4" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="inlineStr">
+        <is>
           <t>223006</t>
         </is>
       </c>
-      <c r="B333" s="4" t="inlineStr">
+      <c r="B334" s="3" t="inlineStr">
         <is>
           <t>محمد فتحى احمد الحسينى</t>
         </is>
       </c>
-      <c r="C333" s="4" t="inlineStr">
-        <is>
-          <t>Year 4</t>
-        </is>
-      </c>
-      <c r="D333" s="4" t="inlineStr">
+      <c r="C334" s="3" t="inlineStr">
+        <is>
+          <t>Year 4</t>
+        </is>
+      </c>
+      <c r="D334" s="3" t="inlineStr">
         <is>
           <t>B2F</t>
         </is>
       </c>
-      <c r="E333" s="4" t="inlineStr">
-        <is>
-          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data_D23092025T114600.xlsx</t>
+      <c r="E334" s="3" t="inlineStr">
+        <is>
+          <t>Y4_B2526_General_&amp;_Special_surgery_1_reference_data.xlsx</t>
         </is>
       </c>
     </row>

--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,7 +25,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -66,10 +70,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -91,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -456,7 +469,7 @@
   </sheetPr>
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -9488,6 +9501,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
+++ b/reference_data/Y4_B2526_General_&_Special_surgery_1_reference_data.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,12 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -70,19 +66,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -104,7 +91,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -469,7 +456,7 @@
   </sheetPr>
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -620,12 +607,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>190540</t>
+          <t>190796</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>ليان بنت خالد بن سعد المقذلى</t>
+          <t>اسيا ادريس ابراهيم ادريس</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -647,12 +634,12 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>190796</t>
+          <t>190801</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>اسيا ادريس ابراهيم ادريس</t>
+          <t>صالح سفيان محمد عثمان عابدون</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -674,12 +661,12 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>190801</t>
+          <t>190803</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>صالح سفيان محمد عثمان عابدون</t>
+          <t>عبد الله كريم احمد الضمور</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -701,12 +688,12 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>190803</t>
+          <t>190807</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>عبد الله كريم احمد الضمور</t>
+          <t xml:space="preserve">ابراهيم عبد الجليل عبد الرحمن ابراهيم </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -728,12 +715,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>190807</t>
+          <t>190846</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عبد الجليل عبد الرحمن ابراهيم </t>
+          <t>محمد ايهاب عبد الله حماد</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -755,12 +742,12 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>190846</t>
+          <t>190874</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>محمد ايهاب عبد الله حماد</t>
+          <t>محمد امين محمود حسن</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -782,12 +769,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>190874</t>
+          <t>190922</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>محمد امين محمود حسن</t>
+          <t>محمد عماد الدوس</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -809,12 +796,12 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>190922</t>
+          <t>190929</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>محمد عماد الدوس</t>
+          <t>سلطان فازع على صغير</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -836,12 +823,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>190929</t>
+          <t>190968</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>سلطان فازع على صغير</t>
+          <t>احمد سليم بشير عجوز</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -863,12 +850,12 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>190968</t>
+          <t>190975</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>احمد سليم بشير عجوز</t>
+          <t>افنان صلاح عيسى حمد محمد</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -890,12 +877,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>190975</t>
+          <t>190981</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>افنان صلاح عيسى حمد محمد</t>
+          <t>عائشه موسى الراقى مهدى</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -917,12 +904,12 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>190981</t>
+          <t>191052</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>عائشه موسى الراقى مهدى</t>
+          <t>احمد رشاد حميد</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -944,12 +931,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>191052</t>
+          <t>191055</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>احمد رشاد حميد</t>
+          <t>بسام محمد سالم نويران</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -971,12 +958,12 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>191055</t>
+          <t>191061</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>بسام محمد سالم نويران</t>
+          <t xml:space="preserve"> Maya Naser Saleem Abubaker</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -998,12 +985,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>191061</t>
+          <t>191062</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maya Naser Saleem Abubaker</t>
+          <t>احمد ابراهيم رمضان خضر</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1025,12 +1012,12 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>191062</t>
+          <t>191088</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>احمد ابراهيم رمضان خضر</t>
+          <t>عبد الرحمن عبود بشير محمد</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1052,12 +1039,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>191088</t>
+          <t>191109</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن عبود بشير محمد</t>
+          <t>ريان بن احمد على العواجى</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1079,12 +1066,12 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>191109</t>
+          <t>191119</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>ريان بن احمد على العواجى</t>
+          <t xml:space="preserve">عمر بلال احمد الشدفان </t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1106,12 +1093,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>191119</t>
+          <t>191123</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر بلال احمد الشدفان </t>
+          <t>حسين سعدأمين</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1133,12 +1120,12 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>191123</t>
+          <t>191125</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>حسين سعدأمين</t>
+          <t xml:space="preserve">احمد رائد محمد رفيق النتشه </t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1160,12 +1147,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>191125</t>
+          <t>191131</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد رائد محمد رفيق النتشه </t>
+          <t xml:space="preserve">المثنى جاد عاطف  </t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -1187,12 +1174,12 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>191131</t>
+          <t>191186</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">المثنى جاد عاطف  </t>
+          <t>ايمان ياسر محمد النونو</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
@@ -1214,12 +1201,12 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>191186</t>
+          <t>191258</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ايمان ياسر محمد النونو</t>
+          <t xml:space="preserve">نايف محمد على الصغير الجلاب </t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1241,12 +1228,12 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>191258</t>
+          <t>191375</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نايف محمد على الصغير الجلاب </t>
+          <t xml:space="preserve">هديل نصر الحريرى </t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
@@ -1268,12 +1255,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>191375</t>
+          <t>191444</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">هديل نصر الحريرى </t>
+          <t>انس ناصر الشبراوى محمد محمد</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1295,12 +1282,12 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>191444</t>
+          <t>191478</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>انس ناصر الشبراوى محمد محمد</t>
+          <t>احمد عبد الرحمن محمد سامر النجار</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
@@ -1322,12 +1309,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>191478</t>
+          <t>191480</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>احمد عبد الرحمن محمد سامر النجار</t>
+          <t xml:space="preserve">محمد عمر سلامه الحراسيس </t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1349,12 +1336,12 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>191480</t>
+          <t>191502</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد عمر سلامه الحراسيس </t>
+          <t>مرام حاتم عبد الله عباس</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
@@ -1376,12 +1363,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>191502</t>
+          <t>200003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>مرام حاتم عبد الله عباس</t>
+          <t>ابراهيم جاد ابراهيم محمود</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -1403,12 +1390,12 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>200003</t>
+          <t>200116</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>ابراهيم جاد ابراهيم محمود</t>
+          <t>اميره ابراهيم محمد</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
@@ -1430,12 +1417,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>200116</t>
+          <t>200163</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>اميره ابراهيم محمد</t>
+          <t>بسملة احمد عبدالمنعم خالد</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1457,12 +1444,12 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>200163</t>
+          <t>200228</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>بسملة احمد عبدالمنعم خالد</t>
+          <t>رانا حسام رمضان محمد</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
@@ -1484,12 +1471,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>200228</t>
+          <t>200344</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>رانا حسام رمضان محمد</t>
+          <t>شريهان عبد الهادى السيد ابراهيم محمد</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1511,12 +1498,12 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>200344</t>
+          <t>200359</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>شريهان عبد الهادى السيد ابراهيم محمد</t>
+          <t>صلاح الدين عرفان صلاح عرفان محمد</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
@@ -1538,12 +1525,12 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>200359</t>
+          <t>200405</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>صلاح الدين عرفان صلاح عرفان محمد</t>
+          <t>عصام طه محمد صلاح الدين طه حسنين</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
@@ -1565,12 +1552,12 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>200405</t>
+          <t>200423</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>عصام طه محمد صلاح الدين طه حسنين</t>
+          <t>عمر خالد احمد مختار هيكل</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
@@ -1592,12 +1579,12 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>200423</t>
+          <t>200468</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>عمر خالد احمد مختار هيكل</t>
+          <t>فريد مبروك حسين احمد ابوعامر</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -1619,12 +1606,12 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>200468</t>
+          <t>200490</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>فريد مبروك حسين احمد ابوعامر</t>
+          <t>Kerlos Saber Kerlos Labib</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
@@ -1646,12 +1633,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>200490</t>
+          <t>200491</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Kerlos Saber Kerlos Labib</t>
+          <t>كيرلس صفوت واصفي سوريال</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -1673,12 +1660,12 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>200491</t>
+          <t>200628</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>كيرلس صفوت واصفي سوريال</t>
+          <t>منار سعيد حسن حسن الديب</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
@@ -1700,12 +1687,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>200628</t>
+          <t>200708</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>منار سعيد حسن حسن الديب</t>
+          <t>نورهان مجدى على احمد ابو شعير</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -1727,12 +1714,12 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>200708</t>
+          <t>200727</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>نورهان مجدى على احمد ابو شعير</t>
+          <t>هبه محمد محمود عبدالظاهر احمد</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
@@ -1754,12 +1741,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>200727</t>
+          <t>200742</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>هبه محمد محمود عبدالظاهر احمد</t>
+          <t>ياسمين رفيق عبده التابعى يحيى</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -1781,12 +1768,12 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>200742</t>
+          <t>200744</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>ياسمين رفيق عبده التابعى يحيى</t>
+          <t xml:space="preserve"> ياسمين مصطفى ابراهيم على السيسى</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
@@ -1808,12 +1795,12 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>200744</t>
+          <t>200785</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ياسمين مصطفى ابراهيم على السيسى</t>
+          <t>ساره عبد الله احمد دانعي</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -1835,12 +1822,12 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>200785</t>
+          <t>200792</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>ساره عبد الله احمد دانعي</t>
+          <t>روان زكريا صالح</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
@@ -1862,12 +1849,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>200792</t>
+          <t>200804</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>روان زكريا صالح</t>
+          <t>Asma Haji Osman Omer</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -1889,12 +1876,12 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>200804</t>
+          <t>200824</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>Asma Haji Osman Omer</t>
+          <t>محمد نظام محمد القرا</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
@@ -1916,12 +1903,12 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>200824</t>
+          <t>200850</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>محمد نظام محمد القرا</t>
+          <t>دانيه مصطفى سالم يوسف</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1931,7 +1918,7 @@
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>B2A</t>
+          <t>B2B</t>
         </is>
       </c>
       <c r="E54" s="3" t="inlineStr">
@@ -1943,12 +1930,12 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>200850</t>
+          <t>200852</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>دانيه مصطفى سالم يوسف</t>
+          <t xml:space="preserve">مجد الدين محمد الجماله </t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
@@ -1970,12 +1957,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>200852</t>
+          <t>200858</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد الدين محمد الجماله </t>
+          <t xml:space="preserve">فارس اسامه محمد فارس اسليم  </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
@@ -1997,12 +1984,12 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>200858</t>
+          <t>200866</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فارس اسامه محمد فارس اسليم  </t>
+          <t>ليلى مروان على شعت</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
@@ -2024,12 +2011,12 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>200866</t>
+          <t>200869</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ليلى مروان على شعت</t>
+          <t>انس الامام</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2051,12 +2038,12 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>200869</t>
+          <t>200877</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>انس الامام</t>
+          <t xml:space="preserve">الاء خالد السماعيل </t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
@@ -2078,12 +2065,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>200877</t>
+          <t>200897</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">الاء خالد السماعيل </t>
+          <t>ريناد بارى ابراهيم عثمان</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2105,12 +2092,12 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>200897</t>
+          <t>200904</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>ريناد بارى ابراهيم عثمان</t>
+          <t>سيف خالد موسى عبيد</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
@@ -2132,12 +2119,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>200905</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>سيف خالد موسى عبيد</t>
+          <t>عبد الله بدر الدين عبد الله احمد</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -2159,12 +2146,12 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>200914</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>عبد الله بدر الدين عبد الله احمد</t>
+          <t>زيد محمد سليم السخارنه</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
@@ -2186,12 +2173,12 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>200914</t>
+          <t>200917</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>زيد محمد سليم السخارنه</t>
+          <t>جعفر محمد الجاسم</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
@@ -2213,12 +2200,12 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>200917</t>
+          <t>200928</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>جعفر محمد الجاسم</t>
+          <t>المنذر بسام ابراهيم العطيوى</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
@@ -2240,12 +2227,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>200928</t>
+          <t>200933</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>المنذر بسام ابراهيم العطيوى</t>
+          <t xml:space="preserve">ميس عمر حسن النصيرات </t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
@@ -2267,12 +2254,12 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>200933</t>
+          <t>200938</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ميس عمر حسن النصيرات </t>
+          <t>محمد جعفر عبده ابو رمان</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
@@ -2294,12 +2281,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>200938</t>
+          <t>200943</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>محمد جعفر عبده ابو رمان</t>
+          <t>محمد احيد سيدى محمد احمد</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
@@ -2321,12 +2308,12 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>200943</t>
+          <t>200958</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>محمد احيد سيدى محمد احمد</t>
+          <t>على معاذ على عثمان</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
@@ -2348,12 +2335,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>200958</t>
+          <t>200968</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>على معاذ على عثمان</t>
+          <t xml:space="preserve">فيصل فهد عمر بافرج </t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
@@ -2375,12 +2362,12 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>200968</t>
+          <t>200994</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">فيصل فهد عمر بافرج </t>
+          <t>مريم عبد الرزاق جامع</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
@@ -2402,12 +2389,12 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>200994</t>
+          <t>200997</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>مريم عبد الرزاق جامع</t>
+          <t>حلا محمود حسين العسولى</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
@@ -2429,12 +2416,12 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>200997</t>
+          <t>200999</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>حلا محمود حسين العسولى</t>
+          <t xml:space="preserve">خليل عاطف محمد خليل طبش </t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
@@ -2456,12 +2443,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>200999</t>
+          <t>201013</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">خليل عاطف محمد خليل طبش </t>
+          <t>اياد محمد مؤمن ابو البرغل</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
@@ -2483,12 +2470,12 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>201013</t>
+          <t>201022</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>اياد محمد مؤمن ابو البرغل</t>
+          <t>محمد اسامه محمد حسن عبد الوهاب</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
@@ -2510,12 +2497,12 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>201022</t>
+          <t>201023</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>محمد اسامه محمد حسن عبد الوهاب</t>
+          <t>دانيا ناصر محمد ابو يوسف</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -2537,12 +2524,12 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>201023</t>
+          <t>201026</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>دانيا ناصر محمد ابو يوسف</t>
+          <t>يمنى احمد عبد الله محمد</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -2564,12 +2551,12 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>201026</t>
+          <t>201051</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>يمنى احمد عبد الله محمد</t>
+          <t>رزان احمد حسن باشماخ</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
@@ -2591,12 +2578,12 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>201051</t>
+          <t>201065</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>رزان احمد حسن باشماخ</t>
+          <t>عباده فراس محمد النسور</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
@@ -2618,12 +2605,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>201065</t>
+          <t>201080</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>عباده فراس محمد النسور</t>
+          <t>زياد محمد سعد عيد رشوان</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
@@ -2645,12 +2632,12 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>201080</t>
+          <t>201157</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>زياد محمد سعد عيد رشوان</t>
+          <t>حلمى عبد الغنى حلمى عبد الغنى جادو</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
@@ -2672,12 +2659,12 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>201157</t>
+          <t>201171</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>حلمى عبد الغنى حلمى عبد الغنى جادو</t>
+          <t>رحمه احمد محمد على خليل</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
@@ -2699,12 +2686,12 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>201171</t>
+          <t>201190</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>رحمه احمد محمد على خليل</t>
+          <t>مازن ضيف الله فالح عمر قنديل</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
@@ -2726,12 +2713,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>201190</t>
+          <t>201197</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>مازن ضيف الله فالح عمر قنديل</t>
+          <t xml:space="preserve">مروان حمزه ابراهيم زقوت </t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
@@ -2753,12 +2740,12 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>201197</t>
+          <t>201218</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان حمزه ابراهيم زقوت </t>
+          <t>عدى بشار رياض ابراهيم</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
@@ -2780,12 +2767,12 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>201218</t>
+          <t>201237</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>عدى بشار رياض ابراهيم</t>
+          <t>وليد سعد وليد عابدين</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
@@ -2807,12 +2794,12 @@
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
         <is>
-          <t>201237</t>
+          <t>201252</t>
         </is>
       </c>
       <c r="B87" s="4" t="inlineStr">
         <is>
-          <t>وليد سعد وليد عابدين</t>
+          <t>خزامه ابراهيم مهاوش الحماد</t>
         </is>
       </c>
       <c r="C87" s="4" t="inlineStr">
@@ -2834,12 +2821,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>201252</t>
+          <t>201253</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>خزامه ابراهيم مهاوش الحماد</t>
+          <t>الما ابراهيم مهاوش الحماد</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
@@ -2861,12 +2848,12 @@
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
         <is>
-          <t>201253</t>
+          <t>201255</t>
         </is>
       </c>
       <c r="B89" s="4" t="inlineStr">
         <is>
-          <t>الما ابراهيم مهاوش الحماد</t>
+          <t>مؤمن محمود محمد الصبيحى</t>
         </is>
       </c>
       <c r="C89" s="4" t="inlineStr">
@@ -2888,12 +2875,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>201255</t>
+          <t>201297</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>مؤمن محمود محمد الصبيحى</t>
+          <t xml:space="preserve">امال منذر عبد الحميد الخرابشه </t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
@@ -2915,12 +2902,12 @@
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>201297</t>
+          <t>201328</t>
         </is>
       </c>
       <c r="B91" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">امال منذر عبد الحميد الخرابشه </t>
+          <t xml:space="preserve">اروى مفتاح محمد خليفه  </t>
         </is>
       </c>
       <c r="C91" s="4" t="inlineStr">
@@ -2942,12 +2929,12 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>201328</t>
+          <t>201337</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اروى مفتاح محمد خليفه  </t>
+          <t xml:space="preserve">نور حازم نعيم الصمادى  </t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -2969,12 +2956,12 @@
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>201337</t>
+          <t>201343</t>
         </is>
       </c>
       <c r="B93" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">نور حازم نعيم الصمادى  </t>
+          <t>ربى ابراهيم محمد العمرو</t>
         </is>
       </c>
       <c r="C93" s="4" t="inlineStr">
@@ -2996,12 +2983,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>201343</t>
+          <t>201397</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ربى ابراهيم محمد العمرو</t>
+          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
@@ -3023,12 +3010,12 @@
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>201397</t>
+          <t>201398</t>
         </is>
       </c>
       <c r="B95" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مروان عبده عبد الجليل العولقى </t>
+          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
         </is>
       </c>
       <c r="C95" s="4" t="inlineStr">
@@ -3050,12 +3037,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>201398</t>
+          <t>201438</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">مرح وليد عبد الفتاح عزام </t>
+          <t>غيث معاذ محمد على</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
@@ -3077,12 +3064,12 @@
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>201438</t>
+          <t>201465</t>
         </is>
       </c>
       <c r="B97" s="4" t="inlineStr">
         <is>
-          <t>غيث معاذ محمد على</t>
+          <t>علياء محمد بكر الكفراوى</t>
         </is>
       </c>
       <c r="C97" s="4" t="inlineStr">
@@ -3104,12 +3091,12 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>201465</t>
+          <t>201495</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>علياء محمد بكر الكفراوى</t>
+          <t xml:space="preserve">عبدالله خالد عبدالله عثمان  </t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
@@ -3131,12 +3118,12 @@
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
         <is>
-          <t>201495</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="B99" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبدالله خالد عبدالله عثمان  </t>
+          <t>احمد حسين محمد</t>
         </is>
       </c>
       <c r="C99" s="4" t="inlineStr">
@@ -3158,12 +3145,12 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>201501</t>
+          <t>201513</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>احمد حسين محمد</t>
+          <t>Abdulhakim Saleh Mohamed Taha</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3185,12 +3172,12 @@
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
         <is>
-          <t>201513</t>
+          <t>201529</t>
         </is>
       </c>
       <c r="B101" s="4" t="inlineStr">
         <is>
-          <t>Abdulhakim Saleh Mohamed Taha</t>
+          <t>تذكار سليمان عيسى احمد دينار</t>
         </is>
       </c>
       <c r="C101" s="4" t="inlineStr">
@@ -3212,12 +3199,12 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>201529</t>
+          <t>201560</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>تذكار سليمان عيسى احمد دينار</t>
+          <t>صهيب محمد عبد الخالق طه</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
@@ -3239,12 +3226,12 @@
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
         <is>
-          <t>201560</t>
+          <t>201563</t>
         </is>
       </c>
       <c r="B103" s="4" t="inlineStr">
         <is>
-          <t>صهيب محمد عبد الخالق طه</t>
+          <t>اسماء محمد ابراهيم</t>
         </is>
       </c>
       <c r="C103" s="4" t="inlineStr">
@@ -3266,12 +3253,12 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>201563</t>
+          <t>201564</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>اسماء محمد ابراهيم</t>
+          <t>فاطمه محمود محمد محمود</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
@@ -3293,12 +3280,12 @@
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
         <is>
-          <t>201564</t>
+          <t>201572</t>
         </is>
       </c>
       <c r="B105" s="4" t="inlineStr">
         <is>
-          <t>فاطمه محمود محمد محمود</t>
+          <t>رهف عبد الرحمن سرور</t>
         </is>
       </c>
       <c r="C105" s="4" t="inlineStr">
@@ -3320,12 +3307,12 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>201572</t>
+          <t>201574</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>رهف عبد الرحمن سرور</t>
+          <t xml:space="preserve">مؤمل نضال عبد جون  </t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
@@ -3347,12 +3334,12 @@
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>201574</t>
+          <t>201632</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مؤمل نضال عبد جون  </t>
+          <t>احمد محمد مصطفى على دنيال</t>
         </is>
       </c>
       <c r="C107" s="4" t="inlineStr">
@@ -3374,12 +3361,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>201632</t>
+          <t>201638</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>احمد محمد مصطفى على دنيال</t>
+          <t>زياد محمود السيد</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
@@ -3401,12 +3388,12 @@
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>201638</t>
+          <t>201669</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>زياد محمود السيد</t>
+          <t>نورهان السيد حسن محمد القزاز</t>
         </is>
       </c>
       <c r="C109" s="4" t="inlineStr">
@@ -3428,12 +3415,12 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>201669</t>
+          <t>201670</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>نورهان السيد حسن محمد القزاز</t>
+          <t>روان شعبان على محمد ابو هيبه</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
@@ -3455,12 +3442,12 @@
     <row r="111">
       <c r="A111" s="4" t="inlineStr">
         <is>
-          <t>201670</t>
+          <t>201682</t>
         </is>
       </c>
       <c r="B111" s="4" t="inlineStr">
         <is>
-          <t>روان شعبان على محمد ابو هيبه</t>
+          <t>خلود خالد اسماعيل عثمان صالح</t>
         </is>
       </c>
       <c r="C111" s="4" t="inlineStr">
@@ -3470,7 +3457,7 @@
       </c>
       <c r="D111" s="4" t="inlineStr">
         <is>
-          <t>B2B</t>
+          <t>B2C</t>
         </is>
       </c>
       <c r="E111" s="4" t="inlineStr">
@@ -3482,12 +3469,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>201682</t>
+          <t>201795</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>خلود خالد اسماعيل عثمان صالح</t>
+          <t xml:space="preserve">عائد احمد خليل </t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
@@ -3509,12 +3496,12 @@
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>201795</t>
+          <t>201819</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عائد احمد خليل </t>
+          <t xml:space="preserve">باقر على خليفة </t>
         </is>
       </c>
       <c r="C113" s="4" t="inlineStr">
@@ -3536,12 +3523,12 @@
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
         <is>
-          <t>201819</t>
+          <t>201823</t>
         </is>
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">باقر على خليفة </t>
+          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
         </is>
       </c>
       <c r="C114" s="3" t="inlineStr">
@@ -3563,12 +3550,12 @@
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
         <is>
-          <t>201823</t>
+          <t>201825</t>
         </is>
       </c>
       <c r="B115" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ابراهيم عماد عابد عابد </t>
+          <t>الحمزه عماد محمد</t>
         </is>
       </c>
       <c r="C115" s="4" t="inlineStr">
@@ -3590,12 +3577,12 @@
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
         <is>
-          <t>201825</t>
+          <t>201834</t>
         </is>
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>الحمزه عماد محمد</t>
+          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
         </is>
       </c>
       <c r="C116" s="3" t="inlineStr">
@@ -3617,12 +3604,12 @@
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>201834</t>
+          <t>201838</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mohamed Mohamed Sayed Hussien </t>
+          <t>سائد عاصم سليمان اسماعيل الاغا</t>
         </is>
       </c>
       <c r="C117" s="4" t="inlineStr">
@@ -3644,12 +3631,12 @@
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
         <is>
-          <t>201838</t>
+          <t>201840</t>
         </is>
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>سائد عاصم سليمان اسماعيل الاغا</t>
+          <t>يونس اسماعيل سليمان</t>
         </is>
       </c>
       <c r="C118" s="3" t="inlineStr">
@@ -3671,12 +3658,12 @@
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>201840</t>
+          <t>201880</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>يونس اسماعيل سليمان</t>
+          <t>شيماء عبد الباسط عبد الصمد درويش</t>
         </is>
       </c>
       <c r="C119" s="4" t="inlineStr">
@@ -3698,12 +3685,12 @@
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
         <is>
-          <t>201880</t>
+          <t>201931</t>
         </is>
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>شيماء عبد الباسط عبد الصمد درويش</t>
+          <t xml:space="preserve">بكر عمر محى الدين  </t>
         </is>
       </c>
       <c r="C120" s="3" t="inlineStr">
@@ -3725,12 +3712,12 @@
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
         <is>
-          <t>201931</t>
+          <t>201954</t>
         </is>
       </c>
       <c r="B121" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">بكر عمر محى الدين  </t>
+          <t xml:space="preserve">احمد صباح محمد </t>
         </is>
       </c>
       <c r="C121" s="4" t="inlineStr">
@@ -3752,12 +3739,12 @@
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
         <is>
-          <t>201954</t>
+          <t>201959</t>
         </is>
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد صباح محمد </t>
+          <t xml:space="preserve">صافى محمد عبد </t>
         </is>
       </c>
       <c r="C122" s="3" t="inlineStr">
@@ -3779,12 +3766,12 @@
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>201959</t>
+          <t>201990</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">صافى محمد عبد </t>
+          <t>زينب اسعد عبد الله المحمداوى</t>
         </is>
       </c>
       <c r="C123" s="4" t="inlineStr">
@@ -3806,12 +3793,12 @@
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
         <is>
-          <t>201990</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>زينب اسعد عبد الله المحمداوى</t>
+          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
         </is>
       </c>
       <c r="C124" s="3" t="inlineStr">
@@ -3833,12 +3820,12 @@
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>202022</t>
         </is>
       </c>
       <c r="B125" s="4" t="inlineStr">
         <is>
-          <t>سلسبيل عادل عبد المعطى مطاوع موسى</t>
+          <t xml:space="preserve">سالى محمد حسن   </t>
         </is>
       </c>
       <c r="C125" s="4" t="inlineStr">
@@ -3860,12 +3847,12 @@
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
         <is>
-          <t>202022</t>
+          <t>202028</t>
         </is>
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">سالى محمد حسن   </t>
+          <t xml:space="preserve">حسن ضرغام كمال </t>
         </is>
       </c>
       <c r="C126" s="3" t="inlineStr">
@@ -3887,12 +3874,12 @@
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>202028</t>
+          <t>202041</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">حسن ضرغام كمال </t>
+          <t xml:space="preserve">محمد سعد وحيد </t>
         </is>
       </c>
       <c r="C127" s="4" t="inlineStr">
@@ -3914,12 +3901,12 @@
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
         <is>
-          <t>202041</t>
+          <t>202089</t>
         </is>
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد سعد وحيد </t>
+          <t xml:space="preserve">مينا حسنين عباس </t>
         </is>
       </c>
       <c r="C128" s="3" t="inlineStr">
@@ -3941,12 +3928,12 @@
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>202089</t>
+          <t>202162</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مينا حسنين عباس </t>
+          <t>محمد عاهد محمد الصرايره</t>
         </is>
       </c>
       <c r="C129" s="4" t="inlineStr">
@@ -3968,12 +3955,12 @@
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
         <is>
-          <t>202162</t>
+          <t>210624</t>
         </is>
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>محمد عاهد محمد الصرايره</t>
+          <t>محمد سمير يونس محمد</t>
         </is>
       </c>
       <c r="C130" s="3" t="inlineStr">
@@ -3995,12 +3982,12 @@
     <row r="131">
       <c r="A131" s="4" t="inlineStr">
         <is>
-          <t>210624</t>
+          <t>210680</t>
         </is>
       </c>
       <c r="B131" s="4" t="inlineStr">
         <is>
-          <t>محمد سمير يونس محمد</t>
+          <t>مصطفى حمدان عطا احمد عبد الله</t>
         </is>
       </c>
       <c r="C131" s="4" t="inlineStr">
@@ -4022,12 +4009,12 @@
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
         <is>
-          <t>210680</t>
+          <t>210728</t>
         </is>
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>مصطفى حمدان عطا احمد عبد الله</t>
+          <t>ندى احمد عقل على</t>
         </is>
       </c>
       <c r="C132" s="3" t="inlineStr">
@@ -4049,12 +4036,12 @@
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>210728</t>
+          <t>210793</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>ندى احمد عقل على</t>
+          <t>معاذ نزال طحينه</t>
         </is>
       </c>
       <c r="C133" s="4" t="inlineStr">
@@ -4076,12 +4063,12 @@
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
         <is>
-          <t>210793</t>
+          <t>210923</t>
         </is>
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>معاذ نزال طحينه</t>
+          <t>علاء على حسن الاسمر</t>
         </is>
       </c>
       <c r="C134" s="3" t="inlineStr">
@@ -4103,12 +4090,12 @@
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
         <is>
-          <t>210923</t>
+          <t>211004</t>
         </is>
       </c>
       <c r="B135" s="4" t="inlineStr">
         <is>
-          <t>علاء على حسن الاسمر</t>
+          <t>منتصر صالح عيسى الخطيب</t>
         </is>
       </c>
       <c r="C135" s="4" t="inlineStr">
@@ -4130,12 +4117,12 @@
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
         <is>
-          <t>211004</t>
+          <t>211010</t>
         </is>
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>منتصر صالح عيسى الخطيب</t>
+          <t>روان فيصل احمد محمد</t>
         </is>
       </c>
       <c r="C136" s="3" t="inlineStr">
@@ -4157,12 +4144,12 @@
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>211010</t>
+          <t>211043</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>روان فيصل احمد محمد</t>
+          <t>حلا محمد ياسر</t>
         </is>
       </c>
       <c r="C137" s="4" t="inlineStr">
@@ -4184,12 +4171,12 @@
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>211043</t>
+          <t>211046</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>حلا محمد ياسر</t>
+          <t>نوف عبد الرحمن عبد الجليل محمد</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
@@ -4211,12 +4198,12 @@
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>211046</t>
+          <t>211079</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>نوف عبد الرحمن عبد الجليل محمد</t>
+          <t>حسن محمد محى الدين بابكر</t>
         </is>
       </c>
       <c r="C139" s="4" t="inlineStr">
@@ -4238,12 +4225,12 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>211079</t>
+          <t>211086</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>حسن محمد محى الدين بابكر</t>
+          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
@@ -4265,12 +4252,12 @@
     <row r="141">
       <c r="A141" s="4" t="inlineStr">
         <is>
-          <t>211086</t>
+          <t>211092</t>
         </is>
       </c>
       <c r="B141" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد القادر حافظ عبد القادر احمد </t>
+          <t>يارا اسماعيل ابراهيم درويش</t>
         </is>
       </c>
       <c r="C141" s="4" t="inlineStr">
@@ -4292,12 +4279,12 @@
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
         <is>
-          <t>211092</t>
+          <t>211096</t>
         </is>
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>يارا اسماعيل ابراهيم درويش</t>
+          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
         </is>
       </c>
       <c r="C142" s="3" t="inlineStr">
@@ -4319,12 +4306,12 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>211096</t>
+          <t>211102</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمود سامى محمود الجلال  </t>
+          <t>باسل عبد المجيد مصطفى الاعمر</t>
         </is>
       </c>
       <c r="C143" s="4" t="inlineStr">
@@ -4346,12 +4333,12 @@
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
         <is>
-          <t>211102</t>
+          <t>211111</t>
         </is>
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>باسل عبد المجيد مصطفى الاعمر</t>
+          <t>عمار عبد المهيمن الساخن</t>
         </is>
       </c>
       <c r="C144" s="3" t="inlineStr">
@@ -4373,12 +4360,12 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>211111</t>
+          <t>211118</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>عمار عبد المهيمن الساخن</t>
+          <t>راما سماعيل محمود فرج فريحات</t>
         </is>
       </c>
       <c r="C145" s="4" t="inlineStr">
@@ -4400,12 +4387,12 @@
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
         <is>
-          <t>211118</t>
+          <t>211121</t>
         </is>
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>راما سماعيل محمود فرج فريحات</t>
+          <t>فراس وائل احمد سعيد</t>
         </is>
       </c>
       <c r="C146" s="3" t="inlineStr">
@@ -4427,12 +4414,12 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
         <is>
-          <t>211121</t>
+          <t>211131</t>
         </is>
       </c>
       <c r="B147" s="4" t="inlineStr">
         <is>
-          <t>فراس وائل احمد سعيد</t>
+          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
         </is>
       </c>
       <c r="C147" s="4" t="inlineStr">
@@ -4454,12 +4441,12 @@
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
         <is>
-          <t>211131</t>
+          <t>211133</t>
         </is>
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ملاذ محمد مختار حاج </t>
+          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
         </is>
       </c>
       <c r="C148" s="3" t="inlineStr">
@@ -4481,12 +4468,12 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>211133</t>
+          <t>211137</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>فاطمه عبد الماجد عبد العزيز عثمان</t>
+          <t>ضرغام بشير حامد بشير</t>
         </is>
       </c>
       <c r="C149" s="4" t="inlineStr">
@@ -4508,12 +4495,12 @@
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>211137</t>
+          <t>211146</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>ضرغام بشير حامد بشير</t>
+          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
@@ -4535,12 +4522,12 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>211146</t>
+          <t>211147</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عثمان عبد الوهاب محجوب على </t>
+          <t>رزان محمد بله عبد الله</t>
         </is>
       </c>
       <c r="C151" s="4" t="inlineStr">
@@ -4562,12 +4549,12 @@
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
         <is>
-          <t>211147</t>
+          <t>211167</t>
         </is>
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>رزان محمد بله عبد الله</t>
+          <t>امينه مجدى محمد مشعل</t>
         </is>
       </c>
       <c r="C152" s="3" t="inlineStr">
@@ -4589,12 +4576,12 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr">
         <is>
-          <t>211167</t>
+          <t>211169</t>
         </is>
       </c>
       <c r="B153" s="4" t="inlineStr">
         <is>
-          <t>امينه مجدى محمد مشعل</t>
+          <t>سفيان عبد الله محمد حمران</t>
         </is>
       </c>
       <c r="C153" s="4" t="inlineStr">
@@ -4616,12 +4603,12 @@
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
         <is>
-          <t>211169</t>
+          <t>211174</t>
         </is>
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>سفيان عبد الله محمد حمران</t>
+          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
         </is>
       </c>
       <c r="C154" s="3" t="inlineStr">
@@ -4643,12 +4630,12 @@
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>211174</t>
+          <t>211175</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">منعمه ابراهيم محمد على </t>
+          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
         </is>
       </c>
       <c r="C155" s="4" t="inlineStr">
@@ -4670,12 +4657,12 @@
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>211175</t>
+          <t>211177</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد مرتضى محمد مضوى </t>
+          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
@@ -4697,12 +4684,12 @@
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
         <is>
-          <t>211177</t>
+          <t>211189</t>
         </is>
       </c>
       <c r="B157" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">اكرم محمد علاء الدين محمد </t>
+          <t>عمر عبد العزيز الزعبي</t>
         </is>
       </c>
       <c r="C157" s="4" t="inlineStr">
@@ -4724,12 +4711,12 @@
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>211189</t>
+          <t>211197</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>عمر عبد العزيز الزعبي</t>
+          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
@@ -4751,12 +4738,12 @@
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>211197</t>
+          <t>211210</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabeel Abdalgader Adam Ibrahim </t>
+          <t xml:space="preserve">صهيب على محمد الخرابشه </t>
         </is>
       </c>
       <c r="C159" s="4" t="inlineStr">
@@ -4778,12 +4765,12 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>211210</t>
+          <t>211216</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">صهيب على محمد الخرابشه </t>
+          <t>احمد على محمد على</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -4805,12 +4792,12 @@
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
         <is>
-          <t>211216</t>
+          <t>211217</t>
         </is>
       </c>
       <c r="B161" s="4" t="inlineStr">
         <is>
-          <t>احمد على محمد على</t>
+          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
         </is>
       </c>
       <c r="C161" s="4" t="inlineStr">
@@ -4832,12 +4819,12 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>211217</t>
+          <t>211242</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ساجد شهاب سليمان عبد الله  </t>
+          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -4859,12 +4846,12 @@
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
         <is>
-          <t>211242</t>
+          <t>211245</t>
         </is>
       </c>
       <c r="B163" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">مجد احمد جمعه ابو جياب </t>
+          <t>زهره حامد سعد الله عبد الله</t>
         </is>
       </c>
       <c r="C163" s="4" t="inlineStr">
@@ -4886,12 +4873,12 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>211245</t>
+          <t>211246</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>زهره حامد سعد الله عبد الله</t>
+          <t>عبد الرحمن شحاده حسين طرخان</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -4913,12 +4900,12 @@
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
         <is>
-          <t>211246</t>
+          <t>211741</t>
         </is>
       </c>
       <c r="B165" s="4" t="inlineStr">
         <is>
-          <t>عبد الرحمن شحاده حسين طرخان</t>
+          <t xml:space="preserve">احمد منار احمد العوينى  </t>
         </is>
       </c>
       <c r="C165" s="4" t="inlineStr">
@@ -4940,12 +4927,12 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>211741</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">احمد منار احمد العوينى  </t>
+          <t>اسامه خالد محسن المطار</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
@@ -4955,7 +4942,7 @@
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>B2C</t>
+          <t>B2D</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
@@ -4967,12 +4954,12 @@
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
         <is>
-          <t>201007</t>
+          <t>211232</t>
         </is>
       </c>
       <c r="B167" s="4" t="inlineStr">
         <is>
-          <t>اسامه خالد محسن المطار</t>
+          <t>دانه جاسر محمد سعيد مسعود</t>
         </is>
       </c>
       <c r="C167" s="4" t="inlineStr">
@@ -4994,12 +4981,12 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>211232</t>
+          <t>211251</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>دانه جاسر محمد سعيد مسعود</t>
+          <t>انوار يوسف موسى الزعبى</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
@@ -5021,12 +5008,12 @@
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
         <is>
-          <t>211251</t>
+          <t>211262</t>
         </is>
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
-          <t>انوار يوسف موسى الزعبى</t>
+          <t>رغد ابراهيم محمد ابو طير</t>
         </is>
       </c>
       <c r="C169" s="4" t="inlineStr">
@@ -5048,12 +5035,12 @@
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
         <is>
-          <t>211262</t>
+          <t>211263</t>
         </is>
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>رغد ابراهيم محمد ابو طير</t>
+          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
         </is>
       </c>
       <c r="C170" s="3" t="inlineStr">
@@ -5075,12 +5062,12 @@
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
         <is>
-          <t>211263</t>
+          <t>211267</t>
         </is>
       </c>
       <c r="B171" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عمر ابراهيم محمد الغنيمات </t>
+          <t>قيس اسامه عبد الله هياجنه</t>
         </is>
       </c>
       <c r="C171" s="4" t="inlineStr">
@@ -5102,12 +5089,12 @@
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
         <is>
-          <t>211267</t>
+          <t>211276</t>
         </is>
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>قيس اسامه عبد الله هياجنه</t>
+          <t>كمال وحيد محمد كمال عناتى</t>
         </is>
       </c>
       <c r="C172" s="3" t="inlineStr">
@@ -5129,12 +5116,12 @@
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
         <is>
-          <t>211276</t>
+          <t>211286</t>
         </is>
       </c>
       <c r="B173" s="4" t="inlineStr">
         <is>
-          <t>كمال وحيد محمد كمال عناتى</t>
+          <t>اياد نبيل صادق طل</t>
         </is>
       </c>
       <c r="C173" s="4" t="inlineStr">
@@ -5156,12 +5143,12 @@
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
         <is>
-          <t>211286</t>
+          <t>211288</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>اياد نبيل صادق طل</t>
+          <t>Ibrahim Taha Salama Helles</t>
         </is>
       </c>
       <c r="C174" s="3" t="inlineStr">
@@ -5183,12 +5170,12 @@
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
         <is>
-          <t>211288</t>
+          <t>211295</t>
         </is>
       </c>
       <c r="B175" s="4" t="inlineStr">
         <is>
-          <t>Ibrahim Taha Salama Helles</t>
+          <t>هبه عبد الحميد عبد الله محمد</t>
         </is>
       </c>
       <c r="C175" s="4" t="inlineStr">
@@ -5210,12 +5197,12 @@
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>211295</t>
+          <t>211298</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>هبه عبد الحميد عبد الله محمد</t>
+          <t>احمد عدنان محمود الخالد</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
@@ -5237,12 +5224,12 @@
     <row r="177">
       <c r="A177" s="4" t="inlineStr">
         <is>
-          <t>211298</t>
+          <t>211299</t>
         </is>
       </c>
       <c r="B177" s="4" t="inlineStr">
         <is>
-          <t>احمد عدنان محمود الخالد</t>
+          <t>محمد منير راضى خرفان</t>
         </is>
       </c>
       <c r="C177" s="4" t="inlineStr">
@@ -5264,12 +5251,12 @@
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>211299</t>
+          <t>211311</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>محمد منير راضى خرفان</t>
+          <t>سولارا حسن صلاح الدين محمد</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
@@ -5291,12 +5278,12 @@
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
         <is>
-          <t>211311</t>
+          <t>211348</t>
         </is>
       </c>
       <c r="B179" s="4" t="inlineStr">
         <is>
-          <t>سولارا حسن صلاح الدين محمد</t>
+          <t>محمد السيد عبد المنعم الغباشى</t>
         </is>
       </c>
       <c r="C179" s="4" t="inlineStr">
@@ -5318,12 +5305,12 @@
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>211348</t>
+          <t>211399</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>محمد السيد عبد المنعم الغباشى</t>
+          <t>بسنت علاء الدين احمد محمد مرزوق</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
@@ -5345,12 +5332,12 @@
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
         <is>
-          <t>211399</t>
+          <t>211415</t>
         </is>
       </c>
       <c r="B181" s="4" t="inlineStr">
         <is>
-          <t>بسنت علاء الدين احمد محمد مرزوق</t>
+          <t>محمد هشام محمد عبد الوهاب</t>
         </is>
       </c>
       <c r="C181" s="4" t="inlineStr">
@@ -5372,12 +5359,12 @@
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
         <is>
-          <t>211415</t>
+          <t>211451</t>
         </is>
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>محمد هشام محمد عبد الوهاب</t>
+          <t>كارين ماجد شرقاوى يعقوب خليل</t>
         </is>
       </c>
       <c r="C182" s="3" t="inlineStr">
@@ -5399,12 +5386,12 @@
     <row r="183">
       <c r="A183" s="4" t="inlineStr">
         <is>
-          <t>211451</t>
+          <t>211457</t>
         </is>
       </c>
       <c r="B183" s="4" t="inlineStr">
         <is>
-          <t>كارين ماجد شرقاوى يعقوب خليل</t>
+          <t>جودى محمد احمد شديد</t>
         </is>
       </c>
       <c r="C183" s="4" t="inlineStr">
@@ -5426,12 +5413,12 @@
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
         <is>
-          <t>211457</t>
+          <t>211486</t>
         </is>
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>جودى محمد احمد شديد</t>
+          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
         </is>
       </c>
       <c r="C184" s="3" t="inlineStr">
@@ -5453,12 +5440,12 @@
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>211486</t>
+          <t>211539</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>ادهم اشرف محمد رجائى عبد الحافظ شعبان</t>
+          <t>عمرو هانى صالح امين حسين الصفتى</t>
         </is>
       </c>
       <c r="C185" s="4" t="inlineStr">
@@ -5480,12 +5467,12 @@
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
         <is>
-          <t>211539</t>
+          <t>211553</t>
         </is>
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>عمرو هانى صالح امين حسين الصفتى</t>
+          <t>ريم السباعى زياد سليمان</t>
         </is>
       </c>
       <c r="C186" s="3" t="inlineStr">
@@ -5507,12 +5494,12 @@
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
         <is>
-          <t>211553</t>
+          <t>211559</t>
         </is>
       </c>
       <c r="B187" s="4" t="inlineStr">
         <is>
-          <t>ريم السباعى زياد سليمان</t>
+          <t>رقيه صفوان محمد تيسير خضير</t>
         </is>
       </c>
       <c r="C187" s="4" t="inlineStr">
@@ -5534,12 +5521,12 @@
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>211559</t>
+          <t>211560</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>رقيه صفوان محمد تيسير خضير</t>
+          <t>عمار ياسر الصادق محمد</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
@@ -5561,12 +5548,12 @@
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>211560</t>
+          <t>211575</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>عمار ياسر الصادق محمد</t>
+          <t>ايلاف الصادق عبد الملك ابراهيم</t>
         </is>
       </c>
       <c r="C189" s="4" t="inlineStr">
@@ -5588,12 +5575,12 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>211575</t>
+          <t>211579</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>ايلاف الصادق عبد الملك ابراهيم</t>
+          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -5615,12 +5602,12 @@
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>211579</t>
+          <t>211590</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>ابراهيم معتصم ابراهيم الشيخ محمد</t>
+          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
         </is>
       </c>
       <c r="C191" s="4" t="inlineStr">
@@ -5642,12 +5629,12 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>211590</t>
+          <t>211598</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عماد عبد الكريم كامل شبير </t>
+          <t>اسحاق محمد على قاسم الصلولى</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -5669,12 +5656,12 @@
     <row r="193">
       <c r="A193" s="4" t="inlineStr">
         <is>
-          <t>211598</t>
+          <t>211603</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>اسحاق محمد على قاسم الصلولى</t>
+          <t>ريم رائد عبد الرحمن ابو جاسر</t>
         </is>
       </c>
       <c r="C193" s="4" t="inlineStr">
@@ -5696,12 +5683,12 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>211603</t>
+          <t>211617</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>ريم رائد عبد الرحمن ابو جاسر</t>
+          <t>عادل عبد السلام احمد العبادى</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -5723,12 +5710,12 @@
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>211617</t>
+          <t>211619</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>عادل عبد السلام احمد العبادى</t>
+          <t>معاذ سامر عبد العزيز دردس</t>
         </is>
       </c>
       <c r="C195" s="4" t="inlineStr">
@@ -5750,12 +5737,12 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>211619</t>
+          <t>211621</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>معاذ سامر عبد العزيز دردس</t>
+          <t>عثمان محمد نادر كامل</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -5777,12 +5764,12 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
-          <t>211621</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="B197" s="4" t="inlineStr">
         <is>
-          <t>عثمان محمد نادر كامل</t>
+          <t>يحيى عز العرب احمد العزه</t>
         </is>
       </c>
       <c r="C197" s="4" t="inlineStr">
@@ -5804,12 +5791,12 @@
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>211623</t>
+          <t>211631</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>يحيى عز العرب احمد العزه</t>
+          <t>فرح احمد عبد الهادى الزعاتره</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -5831,12 +5818,12 @@
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
         <is>
-          <t>211631</t>
+          <t>211635</t>
         </is>
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
-          <t>فرح احمد عبد الهادى الزعاتره</t>
+          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
         </is>
       </c>
       <c r="C199" s="4" t="inlineStr">
@@ -5858,12 +5845,12 @@
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
         <is>
-          <t>211635</t>
+          <t>211637</t>
         </is>
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ichraka Mahamat Oumar </t>
+          <t>مؤيد جميل راسم الريماوى</t>
         </is>
       </c>
       <c r="C200" s="3" t="inlineStr">
@@ -5885,12 +5872,12 @@
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
         <is>
-          <t>211637</t>
+          <t>211643</t>
         </is>
       </c>
       <c r="B201" s="4" t="inlineStr">
         <is>
-          <t>مؤيد جميل راسم الريماوى</t>
+          <t>Omar A H Daraghmeh</t>
         </is>
       </c>
       <c r="C201" s="4" t="inlineStr">
@@ -5912,12 +5899,12 @@
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>211643</t>
+          <t>211648</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Omar A H Daraghmeh</t>
+          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
@@ -5939,12 +5926,12 @@
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
         <is>
-          <t>211648</t>
+          <t>211655</t>
         </is>
       </c>
       <c r="B203" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الرحمن خالد سعيد السعدى  </t>
+          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
         </is>
       </c>
       <c r="C203" s="4" t="inlineStr">
@@ -5966,12 +5953,12 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>211655</t>
+          <t>211662</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">هاشم عبد الاله محمد عبد الحسن الشعبه  </t>
+          <t>غاده بنت جابر بن محمد طوطيه</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
@@ -5993,12 +5980,12 @@
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
         <is>
-          <t>211662</t>
+          <t>211663</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>غاده بنت جابر بن محمد طوطيه</t>
+          <t>ايمن احمد على عبده</t>
         </is>
       </c>
       <c r="C205" s="4" t="inlineStr">
@@ -6020,12 +6007,12 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>211663</t>
+          <t>211670</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>ايمن احمد على عبده</t>
+          <t>اسامه اديب على عبده الشامى</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -6047,12 +6034,12 @@
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
         <is>
-          <t>211670</t>
+          <t>211672</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>اسامه اديب على عبده الشامى</t>
+          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
         </is>
       </c>
       <c r="C207" s="4" t="inlineStr">
@@ -6074,12 +6061,12 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>211672</t>
+          <t>211680</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">محمد خالد محمد ابو عرار  </t>
+          <t>لمى طلال محمد البدور</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -6101,12 +6088,12 @@
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
         <is>
-          <t>211680</t>
+          <t>211687</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>لمى طلال محمد البدور</t>
+          <t>خيران سلطان على الحيجنه</t>
         </is>
       </c>
       <c r="C209" s="4" t="inlineStr">
@@ -6128,12 +6115,12 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>211687</t>
+          <t>211690</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>خيران سلطان على الحيجنه</t>
+          <t>Younes Zouhair Almbarak</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -6155,12 +6142,12 @@
     <row r="211">
       <c r="A211" s="4" t="inlineStr">
         <is>
-          <t>211690</t>
+          <t>211697</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>Younes Zouhair Almbarak</t>
+          <t>فاطمه الهادى ابراهيم احمد</t>
         </is>
       </c>
       <c r="C211" s="4" t="inlineStr">
@@ -6182,12 +6169,12 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>211697</t>
+          <t>211699</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>فاطمه الهادى ابراهيم احمد</t>
+          <t xml:space="preserve">رهف عادل على محمد احمد   </t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
@@ -6209,12 +6196,12 @@
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
         <is>
-          <t>211699</t>
+          <t>211710</t>
         </is>
       </c>
       <c r="B213" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">رهف عادل على محمد احمد   </t>
+          <t>جنات فايز عزمى شماس</t>
         </is>
       </c>
       <c r="C213" s="4" t="inlineStr">
@@ -6236,12 +6223,12 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>211710</t>
+          <t>211711</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>جنات فايز عزمى شماس</t>
+          <t>احمد عبد الله سالم الحويان</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
@@ -6263,12 +6250,12 @@
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>211711</t>
+          <t>211713</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>احمد عبد الله سالم الحويان</t>
+          <t>صفاء محمود عبد الرحيم الامين</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
@@ -6290,12 +6277,12 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>211713</t>
+          <t>211720</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>صفاء محمود عبد الرحيم الامين</t>
+          <t>ساره محمد احمد البيروتى</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
@@ -6317,12 +6304,12 @@
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
         <is>
-          <t>211720</t>
+          <t>211723</t>
         </is>
       </c>
       <c r="B217" s="4" t="inlineStr">
         <is>
-          <t>ساره محمد احمد البيروتى</t>
+          <t>احمد حسن خليفه التليسى</t>
         </is>
       </c>
       <c r="C217" s="4" t="inlineStr">
@@ -6344,12 +6331,12 @@
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>211723</t>
+          <t>211725</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>احمد حسن خليفه التليسى</t>
+          <t>زينب رفعت محمد عبد القيوم</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -6371,12 +6358,12 @@
     <row r="219">
       <c r="A219" s="4" t="inlineStr">
         <is>
-          <t>211725</t>
+          <t>211728</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>زينب رفعت محمد عبد القيوم</t>
+          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
         </is>
       </c>
       <c r="C219" s="4" t="inlineStr">
@@ -6398,12 +6385,12 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>211728</t>
+          <t>211732</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">اياد احمد محمد ابو درويش </t>
+          <t>محمد يامن فراس الامام</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
@@ -6425,12 +6412,12 @@
     <row r="221">
       <c r="A221" s="4" t="inlineStr">
         <is>
-          <t>211732</t>
+          <t>211735</t>
         </is>
       </c>
       <c r="B221" s="4" t="inlineStr">
         <is>
-          <t>محمد يامن فراس الامام</t>
+          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
         </is>
       </c>
       <c r="C221" s="4" t="inlineStr">
@@ -6452,12 +6439,12 @@
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>211735</t>
+          <t>190540</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">عبد الله عواد رفعت ابو زيد   </t>
+          <t>ليان بنت خالد بن سعد المقذلى</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
@@ -6467,7 +6454,7 @@
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>B2D</t>
+          <t>B2E</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
@@ -9501,6 +9488,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>